--- a/_Lang_Korean/Lang/KR/Game/Element.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Element.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8772" uniqueCount="5321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8773" uniqueCount="5321">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Void</t>
@@ -2995,7 +2995,7 @@
     <t xml:space="preserve">魅力維持</t>
   </si>
   <si>
-    <t xml:space="preserve">It sustains your charisma.</t>
+    <t xml:space="preserve">It sustains your Charisma.</t>
   </si>
   <si>
     <t xml:space="preserve">それはあなたの魅力を維持する。</t>
@@ -4522,7 +4522,7 @@
     <t xml:space="preserve">In your nomadic life and travels, you have become capable of taking enough nutrients from small amounts of food.</t>
   </si>
   <si>
-    <t xml:space="preserve">ノマドの旅と生活の中で、あなたは少量の食事から栄養を接種できるようになった。</t>
+    <t xml:space="preserve">ノマドの旅と生活の中で、あなたは少量の食事から栄養を摂取できるようになった。</t>
   </si>
   <si>
     <t xml:space="preserve">You eat effectively.</t>
@@ -28529,7 +28529,7 @@
         <v>1497</v>
       </c>
       <c r="B274" t="s">
-        <v>3868</v>
+        <v>33</v>
       </c>
       <c r="C274" t="s">
         <v>4143</v>

--- a/_Lang_Korean/Lang/KR/Game/Element.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Element.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Element!$A$2:$AF$830</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Element!$A$2:$AF$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Element!$A$2:$AF$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -4460,7 +4460,7 @@
     <t xml:space="preserve">480</t>
   </si>
   <si>
-    <t xml:space="preserve">무쇠 위장</t>
+    <t xml:space="preserve">철의 위장</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Stomach</t>
@@ -8429,7 +8429,7 @@
     <t xml:space="preserve">1510</t>
   </si>
   <si>
-    <t xml:space="preserve">무쇠 피부</t>
+    <t xml:space="preserve">철의 피부</t>
   </si>
   <si>
     <t xml:space="preserve">Iron Skin</t>
@@ -8449,7 +8449,7 @@
   <si>
     <t xml:space="preserve">당신의 피부는 튼튼하다.
 당신의 피부는 무척 튼튼하다.
-당신은 무쇠같은 피부를 갖고있다.</t>
+당신은 철같은 피부를 갖고있다.</t>
   </si>
   <si>
     <t xml:space="preserve">Your skin is hard.
@@ -10485,7 +10485,7 @@
   </si>
   <si>
     <t xml:space="preserve">돌의 수비
-무쇠의 수비
+철의 수비
 강철의 수비</t>
   </si>
   <si>
@@ -16776,18 +16776,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AF830"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C475" activeCellId="0" sqref="C475"/>
+      <selection pane="bottomLeft" activeCell="C397" activeCellId="0" sqref="C397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="14.71"/>
   </cols>
@@ -16890,7 +16890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>32</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>40</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>45</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>56</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>59</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>64</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>68</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>72</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>76</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>80</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>84</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>88</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>92</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>96</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>100</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>104</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>107</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>111</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>115</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>119</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>120</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>124</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>132</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>136</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>140</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>144</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>148</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>152</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>156</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>160</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>164</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>168</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>172</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>176</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>180</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>184</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>188</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>192</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>196</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>203</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>210</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>218</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>225</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>232</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>245</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>258</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>271</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>276</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>281</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>288</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>295</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>303</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>320</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>337</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>354</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>371</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>389</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>407</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>424</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>441</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>454</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>467</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>478</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>486</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>493</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>500</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>507</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>514</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>521</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>528</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>535</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>542</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>549</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>556</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>563</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>570</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>577</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>584</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>591</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>598</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>605</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>615</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>622</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>629</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>640</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>648</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>658</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>668</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>678</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>688</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>698</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>708</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>718</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>728</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>738</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>748</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>759</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>770</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>780</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>789</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>799</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>808</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>817</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>827</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>837</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>847</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>858</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>868</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>878</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>888</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>898</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>908</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>918</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>928</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>939</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>949</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>959</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>969</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>979</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>991</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>1001</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>1011</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>1021</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>1031</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>1041</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>1051</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>1072</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>1082</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>1092</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>1102</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>1112</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>1116</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>1120</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>1124</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>1128</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>1135</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>1142</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>1149</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>1160</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>1167</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>1177</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>1185</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>1193</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>1200</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>1207</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>1215</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>1223</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>1230</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>1237</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>1244</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>1251</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>1258</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>1265</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>1272</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>1279</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>1286</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>1293</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>1307</v>
       </c>
@@ -21587,7 +21587,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>1320</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>1333</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>1346</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>1359</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>1372</v>
       </c>
@@ -21807,7 +21807,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>1385</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>1398</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>1411</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>1418</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>1425</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>1432</v>
       </c>
@@ -21999,7 +21999,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>1439</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>1446</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>1453</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>1460</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>1468</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>1476</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>1483</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>1490</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>1498</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>1505</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>1512</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>1519</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>1526</v>
       </c>
@@ -22337,7 +22337,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>1533</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>1540</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>1547</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>1554</v>
       </c>
@@ -22441,7 +22441,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>1561</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>1565</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>1569</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>1574</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>1578</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>1586</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>1593</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>1600</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>1607</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>1614</v>
       </c>
@@ -22665,7 +22665,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>1621</v>
       </c>
@@ -22691,7 +22691,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>1628</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>1635</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>1642</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>1649</v>
       </c>
@@ -22821,7 +22821,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>1664</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>1674</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>1684</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>1692</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>1702</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>1710</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>1720</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>1730</v>
       </c>
@@ -23119,7 +23119,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>1739</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>1748</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>1756</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>1765</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>1775</v>
       </c>
@@ -23294,7 +23294,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>1785</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>1789</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>1793</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>1794</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>1798</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>1802</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>1806</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>1810</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>1814</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>1818</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>1822</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>1825</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>1827</v>
       </c>
@@ -23515,7 +23515,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>1831</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>1835</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>1836</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>1840</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>1850</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>1860</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>1870</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>1880</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>1884</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>1890</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>1897</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>1904</v>
       </c>
@@ -23836,7 +23836,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>1911</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>1915</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>1922</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>1929</v>
       </c>
@@ -23940,7 +23940,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>1936</v>
       </c>
@@ -23966,7 +23966,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>1943</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>1950</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>1956</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>1963</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>1970</v>
       </c>
@@ -24096,7 +24096,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>1977</v>
       </c>
@@ -24122,7 +24122,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>1985</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>1992</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>1999</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>2006</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>2013</v>
       </c>
@@ -24252,7 +24252,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>2020</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>2027</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>2034</v>
       </c>
@@ -24330,7 +24330,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>2041</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>2048</v>
       </c>
@@ -24382,7 +24382,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>2055</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>2062</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>2069</v>
       </c>
@@ -24460,7 +24460,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>2076</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>2083</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>2090</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>2097</v>
       </c>
@@ -24564,7 +24564,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>2104</v>
       </c>
@@ -24590,7 +24590,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>2111</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>2131</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>2144</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>2156</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>2169</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>2182</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>2202</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>2215</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>2228</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>2238</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>2248</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>2255</v>
       </c>
@@ -25162,7 +25162,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>2265</v>
       </c>
@@ -25197,7 +25197,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>2272</v>
       </c>
@@ -25232,7 +25232,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>2279</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>2289</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>2299</v>
       </c>
@@ -25364,7 +25364,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>2309</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>2319</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>2329</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>2340</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>2350</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>2360</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>2371</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>2381</v>
       </c>
@@ -25707,7 +25707,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>2388</v>
       </c>
@@ -25751,7 +25751,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>2398</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>2405</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>2412</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>2422</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>2432</v>
       </c>
@@ -25944,7 +25944,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>2439</v>
       </c>
@@ -26006,7 +26006,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>2456</v>
       </c>
@@ -26050,7 +26050,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>2467</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>2475</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>2485</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>2495</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>2505</v>
       </c>
@@ -26252,7 +26252,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>2512</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>2519</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>2526</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>2530</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>2537</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>2545</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>2549</v>
       </c>
@@ -26524,7 +26524,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>2553</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>2560</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>2567</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>2574</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>2587</v>
       </c>
@@ -26735,7 +26735,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>2594</v>
       </c>
@@ -26779,7 +26779,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>2604</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>2614</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>2624</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>2634</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>2644</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>2654</v>
       </c>
@@ -27043,7 +27043,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>2664</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>2674</v>
       </c>
@@ -27131,7 +27131,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>2684</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>2694</v>
       </c>
@@ -27219,7 +27219,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>2704</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>2714</v>
       </c>
@@ -27307,7 +27307,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>2724</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>2737</v>
       </c>
@@ -27404,7 +27404,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>2747</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>2757</v>
       </c>
@@ -27492,7 +27492,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>2767</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>2777</v>
       </c>
@@ -27580,7 +27580,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>2788</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="71.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>2798</v>
       </c>
@@ -27677,7 +27677,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>2814</v>
       </c>
@@ -27730,7 +27730,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>2821</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>2835</v>
       </c>
@@ -27836,7 +27836,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>2842</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>2856</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>2863</v>
       </c>
@@ -27995,7 +27995,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>2876</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>2883</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>2896</v>
       </c>
@@ -28154,7 +28154,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>2903</v>
       </c>
@@ -28207,7 +28207,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>2916</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>2923</v>
       </c>
@@ -28313,7 +28313,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>2936</v>
       </c>
@@ -28366,7 +28366,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>2943</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>2956</v>
       </c>
@@ -28472,7 +28472,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>2963</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>2977</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>2984</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>2997</v>
       </c>
@@ -28684,7 +28684,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>3004</v>
       </c>
@@ -28737,7 +28737,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>3017</v>
       </c>
@@ -28790,7 +28790,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>3024</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>3040</v>
       </c>
@@ -28896,7 +28896,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>3053</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>3069</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>3082</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>3098</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>3114</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>3127</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>3140</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>3156</v>
       </c>
@@ -29365,7 +29365,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>3172</v>
       </c>
@@ -29418,7 +29418,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>3185</v>
       </c>
@@ -29471,7 +29471,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>3196</v>
       </c>
@@ -29524,7 +29524,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
         <v>3209</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
         <v>3225</v>
       </c>
@@ -29648,7 +29648,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
         <v>3241</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
         <v>3258</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>3269</v>
       </c>
@@ -29780,7 +29780,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>3279</v>
       </c>
@@ -29815,7 +29815,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>3289</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>3299</v>
       </c>
@@ -29885,7 +29885,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>3309</v>
       </c>
@@ -29920,7 +29920,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>3319</v>
       </c>
@@ -29955,7 +29955,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>3329</v>
       </c>
@@ -29990,7 +29990,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>3339</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>3349</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>3359</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>3369</v>
       </c>
@@ -30130,7 +30130,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>3379</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="71.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>3389</v>
       </c>
@@ -30200,7 +30200,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>3399</v>
       </c>
@@ -30235,7 +30235,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>3409</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>3419</v>
       </c>
@@ -30305,7 +30305,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>3429</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>3439</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>3449</v>
       </c>
@@ -30410,7 +30410,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>3459</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>3472</v>
       </c>
@@ -30498,7 +30498,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>3485</v>
       </c>
@@ -30542,7 +30542,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>3498</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>3511</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>3524</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>3537</v>
       </c>
@@ -30718,7 +30718,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>3550</v>
       </c>
@@ -30762,7 +30762,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>3563</v>
       </c>
@@ -30797,7 +30797,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>3573</v>
       </c>
@@ -30841,7 +30841,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>3586</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>3599</v>
       </c>
@@ -30929,7 +30929,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>3613</v>
       </c>
@@ -30964,7 +30964,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>3623</v>
       </c>
@@ -31008,7 +31008,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
         <v>3637</v>
       </c>
@@ -31052,7 +31052,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
         <v>3650</v>
       </c>
@@ -31096,7 +31096,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
         <v>3663</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
         <v>3677</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
         <v>3690</v>
       </c>
@@ -31213,7 +31213,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
         <v>3695</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
         <v>3702</v>
       </c>
@@ -31265,7 +31265,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
         <v>3709</v>
       </c>
@@ -31291,7 +31291,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
         <v>3716</v>
       </c>
@@ -31317,7 +31317,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>3720</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>3728</v>
       </c>
@@ -31369,7 +31369,7 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>3735</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>3742</v>
       </c>
@@ -31421,7 +31421,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>3749</v>
       </c>
@@ -31447,7 +31447,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>3756</v>
       </c>
@@ -31473,7 +31473,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>3763</v>
       </c>
@@ -31499,7 +31499,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>3770</v>
       </c>
@@ -31525,7 +31525,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>3778</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>3783</v>
       </c>
@@ -31577,7 +31577,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
         <v>3791</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>3798</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>3805</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>3809</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>3816</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>3820</v>
       </c>
@@ -31715,7 +31715,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>3827</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>3834</v>
       </c>
@@ -31758,7 +31758,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>3838</v>
       </c>
@@ -31784,7 +31784,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>3845</v>
       </c>
@@ -31810,7 +31810,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>3852</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>3859</v>
       </c>
@@ -31853,7 +31853,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>3863</v>
       </c>
@@ -31879,7 +31879,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>3870</v>
       </c>
@@ -31905,7 +31905,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>3877</v>
       </c>
@@ -31931,7 +31931,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>3884</v>
       </c>
@@ -31957,7 +31957,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>3891</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>3898</v>
       </c>
@@ -32009,7 +32009,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>3905</v>
       </c>
@@ -32035,7 +32035,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>3912</v>
       </c>
@@ -32061,7 +32061,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>3919</v>
       </c>
@@ -32087,7 +32087,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>3926</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>3934</v>
       </c>
@@ -32139,7 +32139,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>3942</v>
       </c>
@@ -32165,7 +32165,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>3950</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>3958</v>
       </c>
@@ -32217,7 +32217,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>3965</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>3973</v>
       </c>
@@ -32269,7 +32269,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>3981</v>
       </c>
@@ -32295,7 +32295,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>3988</v>
       </c>
@@ -32321,7 +32321,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>3995</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>4003</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>4010</v>
       </c>
@@ -32399,7 +32399,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>4017</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>4024</v>
       </c>
@@ -32581,7 +32581,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>4066</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>4073</v>
       </c>
@@ -32633,7 +32633,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
         <v>4080</v>
       </c>
@@ -32685,7 +32685,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
         <v>4094</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
         <v>4102</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>4108</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
         <v>4109</v>
       </c>
@@ -32789,7 +32789,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>4124</v>
       </c>
@@ -32815,7 +32815,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>4131</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
         <v>4135</v>
       </c>
@@ -32867,7 +32867,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
         <v>4142</v>
       </c>
@@ -32893,7 +32893,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
         <v>4149</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
         <v>4156</v>
       </c>
@@ -32945,7 +32945,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
         <v>4163</v>
       </c>
@@ -32971,7 +32971,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
         <v>4167</v>
       </c>
@@ -32997,7 +32997,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>4174</v>
       </c>
@@ -33023,7 +33023,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>4181</v>
       </c>
@@ -33049,7 +33049,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
         <v>4188</v>
       </c>
@@ -33075,7 +33075,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
         <v>4195</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
         <v>4202</v>
       </c>
@@ -33127,7 +33127,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
         <v>4209</v>
       </c>
@@ -33153,7 +33153,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
         <v>4216</v>
       </c>
@@ -33179,7 +33179,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>4223</v>
       </c>
@@ -33205,7 +33205,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
         <v>4230</v>
       </c>
@@ -33231,7 +33231,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>4237</v>
       </c>
@@ -33257,7 +33257,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
         <v>4244</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>4251</v>
       </c>
@@ -33309,7 +33309,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
         <v>4255</v>
       </c>
@@ -33335,7 +33335,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>4259</v>
       </c>
@@ -33361,7 +33361,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
         <v>4263</v>
       </c>
@@ -33387,7 +33387,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
         <v>4267</v>
       </c>
@@ -33413,7 +33413,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
         <v>4274</v>
       </c>
@@ -33439,7 +33439,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
         <v>4278</v>
       </c>
@@ -33465,7 +33465,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
         <v>4282</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
         <v>4286</v>
       </c>
@@ -33517,7 +33517,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
         <v>4290</v>
       </c>
@@ -33543,7 +33543,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
         <v>4294</v>
       </c>
@@ -33569,7 +33569,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
         <v>4298</v>
       </c>
@@ -33595,7 +33595,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
         <v>4305</v>
       </c>
@@ -33621,7 +33621,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>4312</v>
       </c>
@@ -33647,7 +33647,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
         <v>4319</v>
       </c>
@@ -33673,7 +33673,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>4326</v>
       </c>
@@ -33699,7 +33699,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
         <v>4333</v>
       </c>
@@ -33716,7 +33716,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>4337</v>
       </c>
@@ -33733,7 +33733,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
         <v>4341</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>4345</v>
       </c>
@@ -33767,7 +33767,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
         <v>4349</v>
       </c>
@@ -33784,7 +33784,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
         <v>4350</v>
       </c>
@@ -33801,7 +33801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
         <v>4352</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
         <v>4356</v>
       </c>
@@ -33835,7 +33835,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
         <v>4357</v>
       </c>
@@ -33852,7 +33852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
         <v>4358</v>
       </c>
@@ -33869,7 +33869,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
         <v>4360</v>
       </c>
@@ -33886,7 +33886,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
         <v>4362</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
         <v>4366</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
         <v>4370</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
         <v>4373</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>4377</v>
       </c>
@@ -33971,7 +33971,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
         <v>4378</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
         <v>4382</v>
       </c>
@@ -34005,7 +34005,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
         <v>4384</v>
       </c>
@@ -34022,7 +34022,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
         <v>4385</v>
       </c>
@@ -34039,7 +34039,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
         <v>4388</v>
       </c>
@@ -34056,7 +34056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
         <v>4389</v>
       </c>
@@ -34073,7 +34073,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
         <v>4391</v>
       </c>
@@ -34090,7 +34090,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
         <v>4395</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
         <v>4399</v>
       </c>
@@ -34124,7 +34124,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
         <v>4400</v>
       </c>
@@ -34141,7 +34141,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
         <v>4401</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
         <v>4405</v>
       </c>
@@ -34175,7 +34175,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
         <v>4407</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
         <v>4411</v>
       </c>
@@ -34209,7 +34209,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
         <v>4414</v>
       </c>
@@ -34226,7 +34226,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
         <v>4416</v>
       </c>
@@ -34243,7 +34243,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
         <v>4418</v>
       </c>
@@ -34260,7 +34260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
         <v>4419</v>
       </c>
@@ -34277,7 +34277,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
         <v>4420</v>
       </c>
@@ -34294,7 +34294,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
         <v>4421</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
         <v>4422</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
         <v>4426</v>
       </c>
@@ -34345,7 +34345,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
         <v>4430</v>
       </c>
@@ -34362,7 +34362,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
         <v>4434</v>
       </c>
@@ -34379,7 +34379,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
         <v>4437</v>
       </c>
@@ -34396,7 +34396,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
         <v>4439</v>
       </c>
@@ -34413,7 +34413,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
         <v>4442</v>
       </c>
@@ -34430,7 +34430,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
         <v>4443</v>
       </c>
@@ -34447,7 +34447,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
         <v>4447</v>
       </c>
@@ -34464,7 +34464,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
         <v>4451</v>
       </c>
@@ -34481,7 +34481,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>4455</v>
       </c>
@@ -34498,7 +34498,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
         <v>4459</v>
       </c>
@@ -34515,7 +34515,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
         <v>4463</v>
       </c>
@@ -34532,7 +34532,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
         <v>4465</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
         <v>4469</v>
       </c>
@@ -34566,7 +34566,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
         <v>4473</v>
       </c>
@@ -34583,7 +34583,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
         <v>4476</v>
       </c>
@@ -34600,7 +34600,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
         <v>4477</v>
       </c>
@@ -34617,7 +34617,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
         <v>4481</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
         <v>4485</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
         <v>4487</v>
       </c>
@@ -34668,7 +34668,7 @@
         <v>4490</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
         <v>4491</v>
       </c>
@@ -34685,7 +34685,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
         <v>4495</v>
       </c>
@@ -34702,7 +34702,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
         <v>4497</v>
       </c>
@@ -34728,7 +34728,7 @@
         <v>4501</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
         <v>4502</v>
       </c>
@@ -34754,7 +34754,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
         <v>4509</v>
       </c>
@@ -34780,7 +34780,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
         <v>4516</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
         <v>4520</v>
       </c>
@@ -34823,7 +34823,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
         <v>4527</v>
       </c>
@@ -34849,7 +34849,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
         <v>4533</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
         <v>4540</v>
       </c>
@@ -34901,7 +34901,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
         <v>4547</v>
       </c>
@@ -34927,7 +34927,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
         <v>4554</v>
       </c>
@@ -34944,7 +34944,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
         <v>4559</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
         <v>4563</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
         <v>4567</v>
       </c>
@@ -35013,7 +35013,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
         <v>4577</v>
       </c>
@@ -35039,7 +35039,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
         <v>4584</v>
       </c>
@@ -35065,7 +35065,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
         <v>4591</v>
       </c>
@@ -35082,7 +35082,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
         <v>4593</v>
       </c>
@@ -35099,7 +35099,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
         <v>4597</v>
       </c>
@@ -35116,7 +35116,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
         <v>4602</v>
       </c>
@@ -35133,7 +35133,7 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
         <v>4606</v>
       </c>
@@ -35150,7 +35150,7 @@
         <v>4609</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
         <v>4610</v>
       </c>
@@ -35167,7 +35167,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
         <v>4614</v>
       </c>
@@ -35184,7 +35184,7 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
         <v>4618</v>
       </c>
@@ -35201,7 +35201,7 @@
         <v>4621</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
         <v>4622</v>
       </c>
@@ -35218,7 +35218,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
         <v>4626</v>
       </c>
@@ -35235,7 +35235,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
         <v>4630</v>
       </c>
@@ -35252,7 +35252,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
         <v>4632</v>
       </c>
@@ -35269,7 +35269,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
         <v>4636</v>
       </c>
@@ -35286,7 +35286,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
         <v>4640</v>
       </c>
@@ -35303,7 +35303,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
         <v>4645</v>
       </c>
@@ -35320,7 +35320,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
         <v>4649</v>
       </c>
@@ -35337,7 +35337,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
         <v>4653</v>
       </c>
@@ -35363,7 +35363,7 @@
         <v>4659</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
         <v>4660</v>
       </c>
@@ -35389,7 +35389,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
         <v>4667</v>
       </c>
@@ -35424,7 +35424,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
         <v>4676</v>
       </c>
@@ -35459,7 +35459,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
         <v>4686</v>
       </c>
@@ -35494,7 +35494,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
         <v>4694</v>
       </c>
@@ -35529,7 +35529,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
         <v>4705</v>
       </c>
@@ -35564,7 +35564,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
         <v>4715</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
         <v>4725</v>
       </c>
@@ -35634,7 +35634,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
         <v>4735</v>
       </c>
@@ -35669,7 +35669,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
         <v>4745</v>
       </c>
@@ -35704,7 +35704,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
         <v>4753</v>
       </c>
@@ -35739,7 +35739,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
         <v>4763</v>
       </c>
@@ -35765,7 +35765,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
         <v>4770</v>
       </c>
@@ -35800,7 +35800,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
         <v>4778</v>
       </c>
@@ -35835,7 +35835,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
         <v>4788</v>
       </c>
@@ -35852,7 +35852,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
         <v>4789</v>
       </c>
@@ -35878,7 +35878,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
         <v>4796</v>
       </c>
@@ -35904,7 +35904,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
         <v>4803</v>
       </c>
@@ -35930,7 +35930,7 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
         <v>4810</v>
       </c>
@@ -35956,7 +35956,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
         <v>4817</v>
       </c>
@@ -35991,7 +35991,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
         <v>4825</v>
       </c>
@@ -36026,7 +36026,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
         <v>4829</v>
       </c>
@@ -36052,7 +36052,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
         <v>4836</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
         <v>4840</v>
       </c>
@@ -36104,7 +36104,7 @@
         <v>4846</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
         <v>4847</v>
       </c>
@@ -36130,7 +36130,7 @@
         <v>4846</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
         <v>4852</v>
       </c>
@@ -36156,7 +36156,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
         <v>4859</v>
       </c>
@@ -36182,7 +36182,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
         <v>4863</v>
       </c>
@@ -36208,7 +36208,7 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
         <v>4870</v>
       </c>
@@ -36234,7 +36234,7 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
         <v>4877</v>
       </c>
@@ -36260,7 +36260,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
         <v>4881</v>
       </c>
@@ -36286,7 +36286,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
         <v>4888</v>
       </c>
@@ -36312,7 +36312,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
         <v>4892</v>
       </c>
@@ -36338,7 +36338,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
         <v>4896</v>
       </c>
@@ -36364,7 +36364,7 @@
         <v>4903</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
         <v>4904</v>
       </c>
@@ -36399,7 +36399,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
         <v>4910</v>
       </c>
@@ -36425,7 +36425,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
         <v>4917</v>
       </c>
@@ -36451,7 +36451,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
         <v>4925</v>
       </c>
@@ -36486,7 +36486,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
         <v>4932</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
         <v>4940</v>
       </c>
@@ -36556,7 +36556,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
         <v>4947</v>
       </c>
@@ -36591,7 +36591,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
         <v>4953</v>
       </c>
@@ -36626,7 +36626,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
         <v>4960</v>
       </c>
@@ -36661,7 +36661,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
         <v>4967</v>
       </c>
@@ -36696,7 +36696,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
         <v>4974</v>
       </c>
@@ -36722,7 +36722,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
         <v>4981</v>
       </c>
@@ -36757,7 +36757,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
         <v>4989</v>
       </c>
@@ -36783,7 +36783,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
         <v>4996</v>
       </c>
@@ -36809,7 +36809,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
         <v>5003</v>
       </c>
@@ -36835,7 +36835,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
         <v>5010</v>
       </c>
@@ -36861,7 +36861,7 @@
         <v>5017</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
         <v>5018</v>
       </c>
@@ -36887,7 +36887,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
         <v>5025</v>
       </c>
@@ -36922,7 +36922,7 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
         <v>5033</v>
       </c>
@@ -36957,7 +36957,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
         <v>5041</v>
       </c>
@@ -36992,7 +36992,7 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
         <v>5049</v>
       </c>
@@ -37027,7 +37027,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
         <v>5057</v>
       </c>
@@ -37062,7 +37062,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
         <v>5065</v>
       </c>
@@ -37097,7 +37097,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
         <v>5073</v>
       </c>
@@ -37132,7 +37132,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
         <v>5079</v>
       </c>
@@ -37167,7 +37167,7 @@
         <v>5086</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
         <v>5087</v>
       </c>
@@ -37202,7 +37202,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
         <v>5097</v>
       </c>
@@ -37237,7 +37237,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
         <v>5105</v>
       </c>
@@ -37272,7 +37272,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
         <v>5115</v>
       </c>
@@ -37304,7 +37304,7 @@
         <v>5122</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
         <v>5123</v>
       </c>
@@ -37339,7 +37339,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
         <v>5130</v>
       </c>
@@ -37374,7 +37374,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
         <v>5138</v>
       </c>
@@ -37409,7 +37409,7 @@
         <v>5142</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
         <v>5143</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>5147</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
         <v>5148</v>
       </c>
@@ -37479,7 +37479,7 @@
         <v>5155</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
         <v>5156</v>
       </c>
@@ -37514,7 +37514,7 @@
         <v>5165</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
         <v>5166</v>
       </c>
@@ -37549,7 +37549,7 @@
         <v>5172</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
         <v>5173</v>
       </c>
@@ -37575,7 +37575,7 @@
         <v>5179</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
         <v>5180</v>
       </c>
@@ -37601,7 +37601,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
         <v>5187</v>
       </c>
@@ -37627,7 +37627,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
         <v>5194</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
         <v>5198</v>
       </c>
@@ -37679,7 +37679,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
         <v>5202</v>
       </c>
@@ -37705,7 +37705,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
         <v>5206</v>
       </c>
@@ -37731,7 +37731,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
         <v>5210</v>
       </c>
@@ -37757,7 +37757,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
         <v>5214</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
         <v>5218</v>
       </c>
@@ -37818,7 +37818,7 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
         <v>5228</v>
       </c>
@@ -37853,7 +37853,7 @@
         <v>5237</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
         <v>5238</v>
       </c>
@@ -37870,7 +37870,7 @@
         <v>5241</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
         <v>5242</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
         <v>5252</v>
       </c>
@@ -37931,7 +37931,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
         <v>5257</v>
       </c>
@@ -37957,7 +37957,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
         <v>5262</v>
       </c>
@@ -37983,7 +37983,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
         <v>5267</v>
       </c>
@@ -38018,7 +38018,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
         <v>5268</v>
       </c>
@@ -38053,7 +38053,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
         <v>5269</v>
       </c>
@@ -38088,7 +38088,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
         <v>5270</v>
       </c>
@@ -38123,7 +38123,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
         <v>5271</v>
       </c>
@@ -38158,7 +38158,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
         <v>5272</v>
       </c>
@@ -38184,7 +38184,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
         <v>5273</v>
       </c>
@@ -38219,7 +38219,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
         <v>5274</v>
       </c>
@@ -38254,7 +38254,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="704" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
         <v>5275</v>
       </c>
@@ -38271,7 +38271,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
         <v>5276</v>
       </c>
@@ -38306,7 +38306,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
         <v>5277</v>
       </c>
@@ -38341,7 +38341,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
         <v>5278</v>
       </c>
@@ -38376,7 +38376,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
         <v>5279</v>
       </c>
@@ -38411,7 +38411,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
         <v>5280</v>
       </c>
@@ -38446,7 +38446,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
         <v>5281</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
         <v>5282</v>
       </c>
@@ -38507,7 +38507,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
         <v>5283</v>
       </c>
@@ -38542,7 +38542,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
         <v>5284</v>
       </c>
@@ -38559,7 +38559,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
         <v>5285</v>
       </c>
@@ -38594,7 +38594,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
         <v>5286</v>
       </c>
@@ -38629,7 +38629,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
         <v>5287</v>
       </c>
@@ -38664,7 +38664,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
         <v>5288</v>
       </c>
@@ -38699,7 +38699,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
         <v>5289</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
         <v>5290</v>
       </c>
@@ -38760,7 +38760,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
         <v>5291</v>
       </c>
@@ -38795,7 +38795,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
         <v>5292</v>
       </c>
@@ -38830,7 +38830,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
         <v>5293</v>
       </c>
@@ -38847,7 +38847,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
         <v>5294</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
         <v>5295</v>
       </c>
@@ -38917,7 +38917,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
         <v>5296</v>
       </c>
@@ -38952,7 +38952,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
         <v>5297</v>
       </c>
@@ -38987,7 +38987,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
         <v>5298</v>
       </c>
@@ -39022,7 +39022,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
         <v>5299</v>
       </c>
@@ -39048,7 +39048,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
         <v>5300</v>
       </c>
@@ -39083,7 +39083,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
         <v>5301</v>
       </c>
@@ -39118,7 +39118,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
         <v>5302</v>
       </c>
@@ -39135,7 +39135,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
         <v>5303</v>
       </c>
@@ -39170,7 +39170,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
         <v>5304</v>
       </c>
@@ -39205,7 +39205,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
         <v>5305</v>
       </c>
@@ -39240,7 +39240,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
         <v>5306</v>
       </c>
@@ -39275,7 +39275,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
         <v>5307</v>
       </c>
@@ -39310,7 +39310,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
         <v>5308</v>
       </c>
@@ -39336,7 +39336,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
         <v>5309</v>
       </c>
@@ -39371,7 +39371,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
         <v>5310</v>
       </c>
@@ -39406,7 +39406,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
         <v>5311</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
         <v>5312</v>
       </c>
@@ -39458,7 +39458,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
         <v>5313</v>
       </c>
@@ -39493,7 +39493,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
         <v>5314</v>
       </c>
@@ -39528,7 +39528,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
         <v>5315</v>
       </c>
@@ -39563,7 +39563,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
         <v>5316</v>
       </c>
@@ -39598,7 +39598,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
         <v>5317</v>
       </c>
@@ -39624,7 +39624,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
         <v>5318</v>
       </c>
@@ -39659,7 +39659,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
         <v>5319</v>
       </c>
@@ -39694,7 +39694,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
         <v>5320</v>
       </c>
@@ -39711,7 +39711,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
         <v>5321</v>
       </c>
@@ -39746,7 +39746,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
         <v>5322</v>
       </c>
@@ -39781,7 +39781,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
         <v>5323</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
         <v>5324</v>
       </c>
@@ -39851,7 +39851,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
         <v>5325</v>
       </c>
@@ -39886,7 +39886,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
         <v>5326</v>
       </c>
@@ -39912,7 +39912,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
         <v>5327</v>
       </c>
@@ -39947,7 +39947,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
         <v>5328</v>
       </c>
@@ -39982,7 +39982,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
         <v>5329</v>
       </c>
@@ -39999,7 +39999,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
         <v>5330</v>
       </c>
@@ -40034,7 +40034,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
         <v>5331</v>
       </c>
@@ -40069,7 +40069,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
         <v>5332</v>
       </c>
@@ -40104,7 +40104,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
         <v>5333</v>
       </c>
@@ -40139,7 +40139,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
         <v>5334</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
         <v>5335</v>
       </c>
@@ -40200,7 +40200,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
         <v>5336</v>
       </c>
@@ -40235,7 +40235,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
         <v>5337</v>
       </c>
@@ -40270,7 +40270,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
         <v>5338</v>
       </c>
@@ -40287,7 +40287,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
         <v>5339</v>
       </c>
@@ -40322,7 +40322,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
         <v>5340</v>
       </c>
@@ -40357,7 +40357,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
         <v>5341</v>
       </c>
@@ -40392,7 +40392,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
         <v>5342</v>
       </c>
@@ -40427,7 +40427,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
         <v>5343</v>
       </c>
@@ -40462,7 +40462,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
         <v>5344</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
         <v>5345</v>
       </c>
@@ -40523,7 +40523,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
         <v>5346</v>
       </c>
@@ -40558,7 +40558,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="776" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
         <v>5347</v>
       </c>
@@ -40575,7 +40575,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
         <v>5348</v>
       </c>
@@ -40610,7 +40610,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
         <v>5349</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="779" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
         <v>5350</v>
       </c>
@@ -40680,7 +40680,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="780" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
         <v>5351</v>
       </c>
@@ -40715,7 +40715,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="781" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
         <v>5352</v>
       </c>
@@ -40750,7 +40750,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="782" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
         <v>5353</v>
       </c>
@@ -40776,7 +40776,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
         <v>5354</v>
       </c>
@@ -40811,7 +40811,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="784" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
         <v>5355</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="785" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
         <v>5356</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
         <v>5357</v>
       </c>
@@ -40898,7 +40898,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
         <v>5358</v>
       </c>
@@ -40933,7 +40933,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
         <v>5359</v>
       </c>
@@ -40968,7 +40968,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
         <v>5360</v>
       </c>
@@ -41003,7 +41003,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="790" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
         <v>5361</v>
       </c>
@@ -41038,7 +41038,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
         <v>5362</v>
       </c>
@@ -41064,7 +41064,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
         <v>5363</v>
       </c>
@@ -41099,7 +41099,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
         <v>5364</v>
       </c>
@@ -41134,7 +41134,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
         <v>5365</v>
       </c>
@@ -41151,7 +41151,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
         <v>5366</v>
       </c>
@@ -41186,7 +41186,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
         <v>5367</v>
       </c>
@@ -41221,7 +41221,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
         <v>5368</v>
       </c>
@@ -41256,7 +41256,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
         <v>5369</v>
       </c>
@@ -41291,7 +41291,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
         <v>5370</v>
       </c>
@@ -41326,7 +41326,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
         <v>5371</v>
       </c>
@@ -41352,7 +41352,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
         <v>5372</v>
       </c>
@@ -41387,7 +41387,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
         <v>5373</v>
       </c>
@@ -41422,7 +41422,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
         <v>5374</v>
       </c>
@@ -41439,7 +41439,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
         <v>5375</v>
       </c>
@@ -41474,7 +41474,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
         <v>5376</v>
       </c>
@@ -41509,7 +41509,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
         <v>5377</v>
       </c>
@@ -41544,7 +41544,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
         <v>5378</v>
       </c>
@@ -41579,7 +41579,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
         <v>5379</v>
       </c>
@@ -41614,7 +41614,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
         <v>5380</v>
       </c>
@@ -41640,7 +41640,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
         <v>5381</v>
       </c>
@@ -41675,7 +41675,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
         <v>5382</v>
       </c>
@@ -41710,7 +41710,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
         <v>5383</v>
       </c>
@@ -41727,7 +41727,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
         <v>5384</v>
       </c>
@@ -41762,7 +41762,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="814" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
         <v>5385</v>
       </c>
@@ -41797,7 +41797,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
         <v>5386</v>
       </c>
@@ -41832,7 +41832,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
         <v>5387</v>
       </c>
@@ -41867,7 +41867,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="817" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
         <v>5388</v>
       </c>
@@ -41902,7 +41902,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
         <v>5389</v>
       </c>
@@ -41928,7 +41928,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="819" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
         <v>5390</v>
       </c>
@@ -41963,7 +41963,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="820" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
         <v>5391</v>
       </c>
@@ -41998,7 +41998,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="821" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
         <v>5392</v>
       </c>
@@ -42015,7 +42015,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
         <v>5393</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
         <v>5394</v>
       </c>
@@ -42085,7 +42085,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
         <v>5395</v>
       </c>
@@ -42120,7 +42120,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="825" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
         <v>5396</v>
       </c>
@@ -42155,7 +42155,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="826" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
         <v>5397</v>
       </c>
@@ -42190,7 +42190,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="827" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
         <v>5398</v>
       </c>
@@ -42216,7 +42216,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
         <v>5399</v>
       </c>
@@ -42251,7 +42251,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="829" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
         <v>5400</v>
       </c>
@@ -42286,7 +42286,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
         <v>5402</v>
       </c>
@@ -42304,14 +42304,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF830">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="EA 23.24 fix 4"/>
-        <filter val="EA 23.3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AF830"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/_Lang_Korean/Lang/KR/Game/Element.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Element.xlsx
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">旅歩き</t>
   </si>
   <si>
-    <t xml:space="preserve">빠른 여행을 가능하게 하고,  여행동안 더 많은 경험치를 획득한다.</t>
+    <t xml:space="preserve">빠르게 여향할 수 있게 된다, 여행으로 더 많은 경험치를 획득한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to receive more EXP from traveling.</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">収穫する者</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은  온갖 공격으로 목숨을 수확한다.</t>
+    <t xml:space="preserve">그것은 온갖 공격으로 목숨을 수확한다.</t>
   </si>
   <si>
     <t xml:space="preserve">It harvests life with any attack.</t>
@@ -4661,7 +4661,7 @@
     <t xml:space="preserve">精密射撃</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 사격시  거리로 인한 패널티를 억제한다.</t>
+    <t xml:space="preserve">그것은 사격시 거리로 인한 패널티를 억제한다.</t>
   </si>
   <si>
     <t xml:space="preserve">It minimizes the penalty for shooting at distance.</t>
@@ -4799,7 +4799,7 @@
     <t xml:space="preserve">生きている</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은  살아있다.</t>
+    <t xml:space="preserve">그것은 살아있다.</t>
   </si>
   <si>
     <t xml:space="preserve">It is alive.</t>
@@ -6704,7 +6704,7 @@
     <t xml:space="preserve">あなたは狐に見守られている。</t>
   </si>
   <si>
-    <t xml:space="preserve">동료들을 대상으로 한 축복의 보호 성능이 상승하고,  적을 대상으로 한 저주의 약화 성능이 상승한다.</t>
+    <t xml:space="preserve">동료들을 대상으로 한 축복의 보호 성능이 상승하고, 적을 대상으로 한 저주의 약화 성능이 상승한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Blessings further protect allies,Hexes further weaken enemies</t>
@@ -8033,7 +8033,7 @@
     <t xml:space="preserve">ブースト</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 빈사 상황에서  각성한다.</t>
+    <t xml:space="preserve">당신은 빈사 상황에서 각성한다.</t>
   </si>
   <si>
     <t xml:space="preserve">You are awakened at the threshold of death.</t>
@@ -8123,7 +8123,7 @@
     <t xml:space="preserve">エヘカトルの祝福</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 여신의  사랑을 받고 있다.</t>
+    <t xml:space="preserve">당신은 여신의 사랑을 받고 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">You are loved by the Goddess.</t>
@@ -8252,7 +8252,7 @@
     <t xml:space="preserve">異端尋問</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 이단을  미워한다.</t>
+    <t xml:space="preserve">당신은 이단을 증오한다.</t>
   </si>
   <si>
     <t xml:space="preserve">You despise heresy.</t>
@@ -8636,7 +8636,7 @@
     <t xml:space="preserve">きしむ関節</t>
   </si>
   <si>
-    <t xml:space="preserve">당신의 관절은  삐걱인다.
+    <t xml:space="preserve">당신의 관절은 삐걱인다.
 당신은 관절통으로 고생하고 있다.
 당신은 심각한 관절통을 앓고있다.</t>
   </si>
@@ -9362,7 +9362,7 @@
 あなたの目は4つある。</t>
   </si>
   <si>
-    <t xml:space="preserve">#1의 눈은  줄어들었다</t>
+    <t xml:space="preserve">#1의 눈은 줄어들었다</t>
   </si>
   <si>
     <t xml:space="preserve">#your eyes become normal.</t>
@@ -12914,7 +12914,7 @@
     <t xml:space="preserve">丘</t>
   </si>
   <si>
-    <t xml:space="preserve">식료 공급은 적지만,  운영력을 상승시키기 쉬운 토지.</t>
+    <t xml:space="preserve">식료 공급은 적지만, 운영력을 상승시키기 쉬운 토지.</t>
   </si>
   <si>
     <t xml:space="preserve">Land with little food supply but more admin points.</t>
@@ -16781,13 +16781,13 @@
   </sheetPr>
   <dimension ref="A1:AF830"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C397" activeCellId="0" sqref="C397"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F491" activeCellId="1" sqref="G469 F491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="14.71"/>
   </cols>
@@ -27889,7 +27889,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="71.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>2856</v>
       </c>

--- a/_Lang_Korean/Lang/KR/Game/Element.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Element.xlsx
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">感覚</t>
   </si>
   <si>
-    <t xml:space="preserve">오감의 예리함이나, 감수성의 예민함.</t>
+    <t xml:space="preserve">오감의 예리함이나 감수성의 예민함.</t>
   </si>
   <si>
     <t xml:space="preserve">Acuteness of the five senses.</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">戦術</t>
   </si>
   <si>
-    <t xml:space="preserve">근접공격의 위력을 높인다.</t>
+    <t xml:space="preserve">근접 공격의 위력을 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Increases melee damage.</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">見切り</t>
   </si>
   <si>
-    <t xml:space="preserve">부정확한 공격을 확실하게 회피한다.</t>
+    <t xml:space="preserve">적의 실수를 간파해 더 확실하게 회피할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Makes you able to evade inaccurate attacks.</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">隠密</t>
   </si>
   <si>
-    <t xml:space="preserve">주위에 들키지 않고 행동한다.</t>
+    <t xml:space="preserve">들키지 않고 움직일 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to move quietly.</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">水泳</t>
   </si>
   <si>
-    <t xml:space="preserve">수중에서의 이동을 용이하게 한다.</t>
+    <t xml:space="preserve">물 속에서 더 쉽게 이동할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to move easier in water.</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">重量上げ</t>
   </si>
   <si>
-    <t xml:space="preserve">무거운 짐을 지고 움직일 수 있게 한다.</t>
+    <t xml:space="preserve">무거운 짐을 지고 움직일 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to carry more stuff.</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">乗馬</t>
   </si>
   <si>
-    <t xml:space="preserve">능숙하게 올라탄다.</t>
+    <t xml:space="preserve">기마의 효율을 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to ride creatures.</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">共存</t>
   </si>
   <si>
-    <t xml:space="preserve">능숙하게 기생한다.</t>
+    <t xml:space="preserve">기생의 효율을 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows your ally to parasitize on you.</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">調教</t>
   </si>
   <si>
-    <t xml:space="preserve">동물을 교육한다.</t>
+    <t xml:space="preserve">동물을 잘 교육할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to nurse animals.</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">旅歩き</t>
   </si>
   <si>
-    <t xml:space="preserve">빠르게 여향할 수 있게 된다, 여행으로 더 많은 경험치를 획득한다.</t>
+    <t xml:space="preserve">빠르게 여행할 수 있게 되고 여행으로 더 많은 경험치를 획득하게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to receive more EXP from traveling.</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">演奏</t>
   </si>
   <si>
-    <t xml:space="preserve">질높은 연주를 가능하게 한다.</t>
+    <t xml:space="preserve">훌륭한 연주가 가능해진다.</t>
   </si>
   <si>
     <t xml:space="preserve">Shows how good of a performer you are.</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">クライミング</t>
   </si>
   <si>
-    <t xml:space="preserve">높은 장소나 산악지역의 이동을 용이하게 한다.</t>
+    <t xml:space="preserve">높은 장소나 산악 지역을 더 쉽게 이동할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to move easier in mountain or elavated terrain.</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">釣り</t>
   </si>
   <si>
-    <t xml:space="preserve">낚시를 가능하게 한다.</t>
+    <t xml:space="preserve">낚시가 가능해진다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to fish.</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">木工</t>
   </si>
   <si>
-    <t xml:space="preserve">나무를 가공해, 아이템을 만든다.</t>
+    <t xml:space="preserve">나무를 가공해 아이템을 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to manufacture wood products.</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">鍛冶</t>
   </si>
   <si>
-    <t xml:space="preserve">금속을 가공해, 아이템을 만든다.</t>
+    <t xml:space="preserve">금속을 가공해 아이템을 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to manufacture metal products.</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">錬金</t>
   </si>
   <si>
-    <t xml:space="preserve">여러 재료를 조합해, 포션을 만든다.</t>
+    <t xml:space="preserve">여러 재료를 조합해 포션을 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Enables you to perform alchemy.</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">彫刻</t>
   </si>
   <si>
-    <t xml:space="preserve">돌을 가공해, 아이템을 만든다.</t>
+    <t xml:space="preserve">돌을 가공해 아이템을 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to carve and engrave stones.</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">宝石細工</t>
   </si>
   <si>
-    <t xml:space="preserve">보석을 가공해, 아이템을 만든다.</t>
+    <t xml:space="preserve">보석을 가공해 아이템을 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to process jewels and manufucture products.</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">裁縫</t>
   </si>
   <si>
-    <t xml:space="preserve">천이나 가죽을 사용해, 아이템을 만든다.</t>
+    <t xml:space="preserve">천이나 가죽을 사용해 아이템을 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to sew materials and manufucture products.</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">製作</t>
   </si>
   <si>
-    <t xml:space="preserve">수공예품이나 작업대를 만든다.</t>
+    <t xml:space="preserve">수공예품이나 작업대를 만들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to craft basic stuff and workbenches.</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">鍵開け</t>
   </si>
   <si>
-    <t xml:space="preserve">더 빠르게 자물쇠를 해제를 가능하게 한다.</t>
+    <t xml:space="preserve">자물쇠 해제에 걸리는 시간이 줄어든다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to pick more difficult locks.</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">窃盗</t>
   </si>
   <si>
-    <t xml:space="preserve">들키지 않고 귀중한 물건을 훔친다.</t>
+    <t xml:space="preserve">귀중한 물건을 들키지 않고 훔칠 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Shows how good of a thief you are.</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">読書</t>
   </si>
   <si>
-    <t xml:space="preserve">난해한 책의 이해를 가능하게한다.</t>
+    <t xml:space="preserve">어려운 책을 더 쉽게 이해할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to read difficult books.</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">農業</t>
   </si>
   <si>
-    <t xml:space="preserve">식물이나 작물을 기르고 수확한다.</t>
+    <t xml:space="preserve">식물이나 작물을 기르고 수확할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Skill to plant seeds and gather harvests.</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">料理</t>
   </si>
   <si>
-    <t xml:space="preserve">요리 실력을 높인다.</t>
+    <t xml:space="preserve">요리 실력이 향상된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Improves your skill to cook.</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">建築</t>
   </si>
   <si>
-    <t xml:space="preserve">건축 실력을 높인다.</t>
+    <t xml:space="preserve">건축 실력이 향상된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Improves your skill to build.</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">鑑定</t>
   </si>
   <si>
-    <t xml:space="preserve">장비나 아이템을 분별한다.</t>
+    <t xml:space="preserve">장비나 아이템의 상세 정보를 알 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to appraise stuff.</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">解剖学</t>
   </si>
   <si>
-    <t xml:space="preserve">사체를 남길 확률을 높인다.</t>
+    <t xml:space="preserve">적이 시체를 남길 확률이 높아진다.</t>
   </si>
   <si>
     <t xml:space="preserve">Gives you a better chance of finding dead bodies.</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">交渉術</t>
   </si>
   <si>
-    <t xml:space="preserve">교섭이나 거래를 유리하게 진행한다.</t>
+    <t xml:space="preserve">교섭이나 거래에서 우위를 점할 수 있게된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Convinces someone to give you better deals.</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">投資</t>
   </si>
   <si>
-    <t xml:space="preserve">효과적인 투자를 실시한다</t>
+    <t xml:space="preserve">투자 효율이 좋아진다.</t>
   </si>
   <si>
     <t xml:space="preserve">Lowers the money needed to invest in shops.</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">罠解体</t>
   </si>
   <si>
-    <t xml:space="preserve">복잡한 함정 해체를 가능하게 한다.</t>
+    <t xml:space="preserve">복잡한 함정도 해체할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Allows you to disarm harder traps.</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">自然治癒</t>
   </si>
   <si>
-    <t xml:space="preserve">부상을 자연적으로 치유한다.</t>
+    <t xml:space="preserve">부상을 입을 경우, 자연적으로 회복할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Gradually heals your wounds.</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">瞑想</t>
   </si>
   <si>
-    <t xml:space="preserve">소진한 마나를 회복시킨다</t>
+    <t xml:space="preserve">바닥난 마나를 회복한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Gradually restores your magic points.</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">304</t>
   </si>
   <si>
-    <t xml:space="preserve">영창</t>
+    <t xml:space="preserve">시전</t>
   </si>
   <si>
     <t xml:space="preserve">Casting</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">詠唱</t>
   </si>
   <si>
-    <t xml:space="preserve">마법영창 성공률을 높인다.</t>
+    <t xml:space="preserve">마법 시전 성공률을 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Reduces the chance of casting failure.</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">魔法詠唱の成功率をあげる。</t>
   </si>
   <si>
-    <t xml:space="preserve">그것은 고도의 영창을 가능하게 한다.</t>
+    <t xml:space="preserve">그것은 고도의 마법 시전을 가능하게 한다.</t>
   </si>
   <si>
     <t xml:space="preserve">It enhances your casting ability.</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">信仰</t>
   </si>
   <si>
-    <t xml:space="preserve">신과의 거리를 가깝게한다.</t>
+    <t xml:space="preserve">신과 더 가까워지게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Gets you closer to god.</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">暗記</t>
   </si>
   <si>
-    <t xml:space="preserve">기록으로부터 얻은 지식을 기억한다.</t>
+    <t xml:space="preserve">기록물로부터 얻은 지식을 확실하게 기억할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Helps you memorize additional spell stocks.</t>
@@ -3491,7 +3491,7 @@
     <t xml:space="preserve">早覚え</t>
   </si>
   <si>
-    <t xml:space="preserve">피트 획득에 필요한 경험치 감소</t>
+    <t xml:space="preserve">피트 획득에 필요한 경험치가 감소한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease the exp required to gain feat.</t>
@@ -5561,7 +5561,7 @@
     <t xml:space="preserve">火炎変換</t>
   </si>
   <si>
-    <t xml:space="preserve">공격을 화염 속성으로 변환한다</t>
+    <t xml:space="preserve">공격을 화염 속성으로 변환한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Converts damage to fire.</t>
@@ -5591,7 +5591,7 @@
     <t xml:space="preserve">冷気変換</t>
   </si>
   <si>
-    <t xml:space="preserve">공격을 냉기 속성으로 변환한다</t>
+    <t xml:space="preserve">공격을 냉기 속성으로 변환한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Converts damage to cold.</t>
@@ -5621,7 +5621,7 @@
     <t xml:space="preserve">電撃変換</t>
   </si>
   <si>
-    <t xml:space="preserve">공격을 전격 속성으로 변환한다</t>
+    <t xml:space="preserve">공격을 전격 속성으로 변환한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Converts damage to lightning.</t>
@@ -5651,7 +5651,7 @@
     <t xml:space="preserve">衝撃変換</t>
   </si>
   <si>
-    <t xml:space="preserve">공격을 충격속성으로 변환한다</t>
+    <t xml:space="preserve">공격을 충격 속성으로 변환한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Converts damage to impact.</t>
@@ -5996,7 +5996,7 @@
     <t xml:space="preserve">火炎耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">열과 화염에 대한 내성</t>
+    <t xml:space="preserve">열과 화염에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to fire.</t>
@@ -6017,7 +6017,7 @@
     <t xml:space="preserve">冷気耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">냉기나 물에 대한 내성</t>
+    <t xml:space="preserve">냉기나 물에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to cold.</t>
@@ -6038,7 +6038,7 @@
     <t xml:space="preserve">電撃耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">벼락이나 전기에 대한 내성</t>
+    <t xml:space="preserve">벼락이나 전기에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to lightning.</t>
@@ -6059,7 +6059,7 @@
     <t xml:space="preserve">暗黒耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">암흑이나 실명에 대한 내성</t>
+    <t xml:space="preserve">암흑이나 실명에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to darkness.</t>
@@ -6080,7 +6080,7 @@
     <t xml:space="preserve">幻惑耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">정신 공격에 대한 내성</t>
+    <t xml:space="preserve">정신 공격에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to mind.</t>
@@ -6101,7 +6101,7 @@
     <t xml:space="preserve">毒耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">독에 대한 내성</t>
+    <t xml:space="preserve">독에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to poison.</t>
@@ -6122,7 +6122,7 @@
     <t xml:space="preserve">地獄耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">생명 흡수에 대한 내성</t>
+    <t xml:space="preserve">생명 흡수에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to nether.</t>
@@ -6143,7 +6143,7 @@
     <t xml:space="preserve">音耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">음파나 굉음에 대한 내성</t>
+    <t xml:space="preserve">음파나 굉음에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to sound.</t>
@@ -6164,7 +6164,7 @@
     <t xml:space="preserve">神経耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">수면이나 마비에 대한 내성</t>
+    <t xml:space="preserve">수면이나 마비에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to nerve.</t>
@@ -6185,7 +6185,7 @@
     <t xml:space="preserve">混沌耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">혼돈 효과에 대한 내성</t>
+    <t xml:space="preserve">혼돈 효과에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to chaos.</t>
@@ -6206,7 +6206,7 @@
     <t xml:space="preserve">神聖耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">성스러운 힘에 대한 내성</t>
+    <t xml:space="preserve">성스러운 힘에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to holiness.</t>
@@ -6227,7 +6227,7 @@
     <t xml:space="preserve">魔法耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">마법 공격에 대한 내성</t>
+    <t xml:space="preserve">마법 공격에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to magic.</t>
@@ -6248,7 +6248,7 @@
     <t xml:space="preserve">エーテル耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">에테르에 대한 내성</t>
+    <t xml:space="preserve">에테르에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to ether.</t>
@@ -6269,7 +6269,7 @@
     <t xml:space="preserve">酸耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">산성에 대한 내성</t>
+    <t xml:space="preserve">산성에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to acid.</t>
@@ -6290,7 +6290,7 @@
     <t xml:space="preserve">出血耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">베인 상처에 대한 내성</t>
+    <t xml:space="preserve">베인 상처에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to cut.</t>
@@ -6311,7 +6311,7 @@
     <t xml:space="preserve">衝撃耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">충격에 대한 내성</t>
+    <t xml:space="preserve">충격에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to impact.</t>
@@ -6332,7 +6332,7 @@
     <t xml:space="preserve">腐敗耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">부패에 대한 내성</t>
+    <t xml:space="preserve">부패에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to decay.</t>
@@ -6353,7 +6353,7 @@
     <t xml:space="preserve">ダメージ耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">데미지에 대한 내성</t>
+    <t xml:space="preserve">데미지에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to damage.</t>
@@ -6374,7 +6374,7 @@
     <t xml:space="preserve">呪い耐性</t>
   </si>
   <si>
-    <t xml:space="preserve">저주에 대한 내성</t>
+    <t xml:space="preserve">저주에 대한 내성.</t>
   </si>
   <si>
     <t xml:space="preserve">Resistance to curse.</t>
@@ -6395,7 +6395,7 @@
     <t xml:space="preserve">栄養満点</t>
   </si>
   <si>
-    <t xml:space="preserve">노마드 족의 여행과 생활 속에서, 당신은 적은 식사로도 충분한 영양 섭취를 하는 방법을 배웠다.</t>
+    <t xml:space="preserve">유목민들의 여행 방법과 그들의 생활 속에서 당신은 적은 식사로도 충분히 영양을 섭취 하는 방법을 배웠다.</t>
   </si>
   <si>
     <t xml:space="preserve">In your nomadic life and travels, you have become capable of taking enough nutrients from small amounts of food.</t>
@@ -6434,7 +6434,7 @@
     <t xml:space="preserve">マナとの同化</t>
   </si>
   <si>
-    <t xml:space="preserve">어렸을 때부터 마나를 접한 당신은, 마나의 반동으로부터 몸을 지키는 방법을 터득했다.</t>
+    <t xml:space="preserve">어렸을 때부터 마나와 접해온 당신은 마나의 반동으로부터 몸을 지키는 방법을 터득했다.</t>
   </si>
   <si>
     <t xml:space="preserve">Having been exposed to mana from an early age, you have learned how to protect yourself from its reaction.</t>
@@ -6470,7 +6470,7 @@
     <t xml:space="preserve">習得上手</t>
   </si>
   <si>
-    <t xml:space="preserve">새로운 기술이나 발명에 둘러싸여 자란 당신은, 물건과 사건의 본질을 꿰뚫는 시선을 갖고있다.</t>
+    <t xml:space="preserve">새로운 기술이나 발명품들에 둘러싸여 자란 당신은 물건과 사건의 본질을 꿰뚫는 시선을 갖게 되었다.</t>
   </si>
   <si>
     <t xml:space="preserve">Having grown up surrounded by new technologies and inventions, you are adept at discovering the essence of things.</t>
@@ -6509,7 +6509,7 @@
     <t xml:space="preserve">変容する体</t>
   </si>
   <si>
-    <t xml:space="preserve">어느 아침, 당신은 신경 쓰이는 꿈에서 눈을 떴고, 잠자리에서 자신이 혼돈의 존재로 변했다는 것을 발견했다.</t>
+    <t xml:space="preserve">어느 아침, 당신은 우중충한 꿈에서 눈을 떴고, 침대 위에서 자신이 혼돈의 존재로 변했다는 것을 깨달았다.</t>
   </si>
   <si>
     <t xml:space="preserve">When you awoke one morning from uneasy dreams, you found yourself in your bed transformed into a chaos-being.</t>
@@ -6686,7 +6686,7 @@
     <t xml:space="preserve">狐守</t>
   </si>
   <si>
-    <t xml:space="preserve">종족에 의해 계승된 특성.</t>
+    <t xml:space="preserve">종족이 계승하는 특성.</t>
   </si>
   <si>
     <t xml:space="preserve">A trait inherited from race.</t>
@@ -6878,7 +6878,7 @@
     <t xml:space="preserve">魔法の精度</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 영창은 정밀하다.</t>
+    <t xml:space="preserve">당신은 주문 시전은 정밀하다.</t>
   </si>
   <si>
     <t xml:space="preserve">Your casting is precise.</t>
@@ -7526,7 +7526,7 @@
     <t xml:space="preserve">元素の加護</t>
   </si>
   <si>
-    <t xml:space="preserve">신에게 받은 은혜.</t>
+    <t xml:space="preserve">신에게 받은 은총.</t>
   </si>
   <si>
     <t xml:space="preserve">A divine endowment.</t>
@@ -7763,7 +7763,7 @@
     <t xml:space="preserve">武器の知識</t>
   </si>
   <si>
-    <t xml:space="preserve">전문 직업에 오랜 세월 동안 종사해 획득한 특성.</t>
+    <t xml:space="preserve">오랜 경력으로 쌓은 능력.</t>
   </si>
   <si>
     <t xml:space="preserve">A trait acquired over many years of working in a specialized profession.</t>
@@ -9941,7 +9941,7 @@
 伝説的苦行者</t>
   </si>
   <si>
-    <t xml:space="preserve">고행을 통해 생명력을 단련하다.</t>
+    <t xml:space="preserve">고행을 통해 생명력을 단련한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Practicing asceticism strengthens your life force.</t>
@@ -9995,7 +9995,7 @@
 魔力の支配</t>
   </si>
   <si>
-    <t xml:space="preserve">유전자 재편성을 통해 마나를 늘리다.</t>
+    <t xml:space="preserve">유전자 재편성을 통해 마나를 늘린다.</t>
   </si>
   <si>
     <t xml:space="preserve">You gain mana by using gene manipulation.</t>
@@ -10043,7 +10043,7 @@
 長距離走者</t>
   </si>
   <si>
-    <t xml:space="preserve">다년간의 달리기 훈련 성과가 스태미너를 높이다.</t>
+    <t xml:space="preserve">다년간의 달리기 훈련 성과로 스태미너를 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Years of training strengthens your stamina.</t>
@@ -10085,7 +10085,7 @@
 腕相撲のチャンピオン</t>
   </si>
   <si>
-    <t xml:space="preserve">팔씨름 특훈으로 근력을 높이다.</t>
+    <t xml:space="preserve">팔씨름 특훈으로 근력을 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Train arm wrestling to increases your strength.</t>
@@ -10127,7 +10127,7 @@
 自在の指</t>
   </si>
   <si>
-    <t xml:space="preserve">손가락을 움직여 재주가 좋아지다.</t>
+    <t xml:space="preserve">손가락을 움직여 재주가 훈련한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Moving your fingers makes you dexterous.</t>
@@ -10169,7 +10169,7 @@
 恐ろしく我慢強い</t>
   </si>
   <si>
-    <t xml:space="preserve">머리를 벽에 박아 내구력을 높이다.</t>
+    <t xml:space="preserve">머리를 벽에 박아 내구력을 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Pushing your head against a wall makes you tougher.</t>
@@ -10211,7 +10211,7 @@
 慧眼</t>
   </si>
   <si>
-    <t xml:space="preserve">먼 곳을 내다봐 시력을 단련하다.</t>
+    <t xml:space="preserve">먼 곳을 내다봐 시력을 단련한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Train your eyes by looking into the distance.</t>
@@ -10295,7 +10295,7 @@
 第六感</t>
   </si>
   <si>
-    <t xml:space="preserve">초자연적인 존재와 접촉해 마력을 갈고 닦다.</t>
+    <t xml:space="preserve">초자연적인 존재와 접촉해 마력을 갈고 닦는다.</t>
   </si>
   <si>
     <t xml:space="preserve">Contact with supernatural beings to hone your magic.</t>
@@ -10337,7 +10337,7 @@
 不屈の意志</t>
   </si>
   <si>
-    <t xml:space="preserve">눈물을 참고 의지를 단련하다.</t>
+    <t xml:space="preserve">눈물을 참고 의지를 단련한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Fight back tears and strengthen your will.</t>
@@ -10379,7 +10379,7 @@
 色魔</t>
   </si>
   <si>
-    <t xml:space="preserve">섹시한 포즈를 배우다.</t>
+    <t xml:space="preserve">섹시한 포즈를 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn sexy poses.</t>
@@ -10421,7 +10421,7 @@
 幸運の女神の寵愛</t>
   </si>
   <si>
-    <t xml:space="preserve">별똥별을 보고 행운을 손에 넣었다.</t>
+    <t xml:space="preserve">별똥별을 보고 행운을 손에 넣는다.</t>
   </si>
   <si>
     <t xml:space="preserve">Sighting a falling star brings you luck.</t>
@@ -10460,7 +10460,7 @@
 韋駄天</t>
   </si>
   <si>
-    <t xml:space="preserve">고양이를 쫓아 다녀 빠르게되다.</t>
+    <t xml:space="preserve">고양이를 쫓아 다녀 빠른 발을 갖게된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Chasing cats increases your speed.</t>
@@ -10499,7 +10499,7 @@
 鋼の守備</t>
   </si>
   <si>
-    <t xml:space="preserve">낙법을 터득해 PV 를 높이다.</t>
+    <t xml:space="preserve">낙법을 터득해 PV 를 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">You establish your own defensive style.</t>
@@ -10541,7 +10541,7 @@
 見極めの達人</t>
   </si>
   <si>
-    <t xml:space="preserve">적의 움직임을 간파해 DV 를 높이다.</t>
+    <t xml:space="preserve">적의 움직임을 간파해 DV 를 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to dodge attacks.</t>
@@ -10583,7 +10583,7 @@
 回避の達人</t>
   </si>
   <si>
-    <t xml:space="preserve">회피 기술을 연마하다.</t>
+    <t xml:space="preserve">회피 기술을 연마한다.</t>
   </si>
   <si>
     <t xml:space="preserve">You improve your evasion skill.</t>
@@ -10625,7 +10625,7 @@
 伝説の発見者</t>
   </si>
   <si>
-    <t xml:space="preserve">주위를 주의 깊게 관찰하고, 숨어있던 물건을 쉽게 발견하게 되다.</t>
+    <t xml:space="preserve">주위를 주의 깊게 관찰해 숨어있던 물건을 쉽게 발견하게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You search around carefully to spot hidden stuff.</t>
@@ -10664,7 +10664,7 @@
 交渉の神</t>
   </si>
   <si>
-    <t xml:space="preserve">행상인 밑에서 일해 교섭 기술을 배우다.</t>
+    <t xml:space="preserve">행상인 밑에서 일해 교섭 기술을 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">Working under a trader improves your negotiation skill.</t>
@@ -10736,7 +10736,7 @@
 狂信者</t>
   </si>
   <si>
-    <t xml:space="preserve">신관 밑에서 수련해 깊은 신앙심을 갖다.</t>
+    <t xml:space="preserve">신관 밑에서 수련해 깊은 신앙심을 갖게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Training under a priest deepens your faith.</t>
@@ -10769,7 +10769,7 @@
     <t xml:space="preserve">動物好き</t>
   </si>
   <si>
-    <t xml:space="preserve">동물 애호도가 높아져 동물들의 말을 이해하게 되다.</t>
+    <t xml:space="preserve">동물과의 친밀도가 높아져 동물들의 말을 이해할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Your love of animals leads you to understand animal language.</t>
@@ -10808,7 +10808,7 @@
     <t xml:space="preserve">祈祷師</t>
   </si>
   <si>
-    <t xml:space="preserve">기도를 올려 저주의 효력을 약화시킨다.</t>
+    <t xml:space="preserve">기도를 올려 저주의 효력을 약화시킬 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Your prayer weakens the power of cursed whisperings.</t>
@@ -10853,7 +10853,7 @@
 眠りの達人</t>
   </si>
   <si>
-    <t xml:space="preserve">양을 세어 푹 잠들 수 있게 되다.</t>
+    <t xml:space="preserve">양을 세어 푹 잠들 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to count sheeps.</t>
@@ -10904,7 +10904,7 @@
 偏執的なA型</t>
   </si>
   <si>
-    <t xml:space="preserve">물건이 제대로 정리되어 있지 않으면 발광한다.</t>
+    <t xml:space="preserve">물건이 제대로 정리되어 있지 않으면 발광하게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">Keeping supplies organized makes you happy.</t>
@@ -10949,7 +10949,7 @@
     <t xml:space="preserve">肉体の変容</t>
   </si>
   <si>
-    <t xml:space="preserve">새로운 신체 부위가 나다.</t>
+    <t xml:space="preserve">새로운 신체 부위가 나게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You grow a new body part.</t>
@@ -10988,7 +10988,7 @@
     <t xml:space="preserve">人気者</t>
   </si>
   <si>
-    <t xml:space="preserve">파티에 참가해 인기인이 되다.</t>
+    <t xml:space="preserve">파티에 참가해 인기인이 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You attend parties to be popular.</t>
@@ -11027,7 +11027,7 @@
     <t xml:space="preserve">孤独な魂</t>
   </si>
   <si>
-    <t xml:space="preserve">고독을 살아가는 힘으로 바꾸는 사고를 몸에 익히다.</t>
+    <t xml:space="preserve">고독을 살아가는 힘으로 바꾸는 사고 방식을 몸에 익힌다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to turn solitude into strength.</t>
@@ -11066,7 +11066,7 @@
     <t xml:space="preserve">羊飼い</t>
   </si>
   <si>
-    <t xml:space="preserve">양에 둘러싸여 무리를 이끄는 법을 배우다.</t>
+    <t xml:space="preserve">양들에게 둘러싸여 무리를 이끄는 법을 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to lead a flock.</t>
@@ -11105,7 +11105,7 @@
     <t xml:space="preserve">連続魔法</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 빠르게 말을 뱉어 영창할 수 있다.</t>
+    <t xml:space="preserve">당신은 빠르게 말을 뱉어 시전할 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">You can chant quickly.</t>
@@ -11135,7 +11135,7 @@
     <t xml:space="preserve">ディフェンダー</t>
   </si>
   <si>
-    <t xml:space="preserve">걸걸하게 욕을 박아 적의 주의를 끄는 기술을 배우다.</t>
+    <t xml:space="preserve">걸걸하게 욕을 박아 적의 주의를 끄는 기술을 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to use foul language to distract enemies.</t>
@@ -11177,7 +11177,7 @@
     <t xml:space="preserve">美食家</t>
   </si>
   <si>
-    <t xml:space="preserve">음식과 영양에 대한 지식을 익히다.</t>
+    <t xml:space="preserve">음식과 영양에 대한 지식을 익힌다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn knowledge about food and nutrition.</t>
@@ -11222,7 +11222,7 @@
     <t xml:space="preserve">魔法のマナー</t>
   </si>
   <si>
-    <t xml:space="preserve">주변에 민폐를 끼치지 않는 마법 영창법을 배우다.</t>
+    <t xml:space="preserve">주변에 민폐를 끼치지 않는 마법 시전법을 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn socially responsible magic casting.</t>
@@ -11297,7 +11297,7 @@
     <t xml:space="preserve">覚醒夢</t>
   </si>
   <si>
-    <t xml:space="preserve">꿈 속에서 마법을 접하다.</t>
+    <t xml:space="preserve">꿈 속에서 마법을 접하게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You touch magic source in your dream.</t>
@@ -11333,9 +11333,9 @@
     <t xml:space="preserve">1654</t>
   </si>
   <si>
-    <t xml:space="preserve">초급 중장 영창
-중급 중장 영창
-상급 중장 영창</t>
+    <t xml:space="preserve">초급 중장 시전
+중급 중장 시전
+상급 중장 시전</t>
   </si>
   <si>
     <t xml:space="preserve">Basic Heavy Cast
@@ -11348,7 +11348,7 @@
 上級重装詠唱</t>
   </si>
   <si>
-    <t xml:space="preserve">몸에 커다란 짐을 짊어지고 영창하다.</t>
+    <t xml:space="preserve">몸에 커다란 짐을 짊어지고도 주문을 시전할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to cast spells under heavy physical strain.</t>
@@ -11372,9 +11372,9 @@
 あなたの声帯はとてつもなく太い。</t>
   </si>
   <si>
-    <t xml:space="preserve">중장비와 방패를 장착할 때 영창 패널티 경감
-중장비와 방패를 장착할 때 영창 패널티 더욱 경감
-중장비와 방패를 장착할 때 영창 패널티 받지 않음,몽롱 상태에서 영창 패널티 경감</t>
+    <t xml:space="preserve">중장비와 방패를 장착할 때 시전 패널티 경감
+중장비와 방패를 장착할 때 시전 패널티 더욱 경감
+중장비와 방패를 장착할 때 시전 패널티 받지 않음,몽롱 상태에서 시전 패널티 경감</t>
   </si>
   <si>
     <t xml:space="preserve">Reduced casting penalty when wearing heavy armor or a shield
@@ -11399,7 +11399,7 @@
     <t xml:space="preserve">模範信者</t>
   </si>
   <si>
-    <t xml:space="preserve">매일 감사 기도를 드리다.</t>
+    <t xml:space="preserve">매일 감사 기도를 드리게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">You offer a prayer of gratitude every day.</t>
@@ -11444,7 +11444,7 @@
     <t xml:space="preserve">廃品回収</t>
   </si>
   <si>
-    <t xml:space="preserve">쓰레기 사이에서 귀중품을 발견해내는 기술을 배우다.</t>
+    <t xml:space="preserve">쓰레기 사이에서 귀중품을 발견해내는 기술을 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn the technique of locating treasures in waste.</t>
@@ -11489,7 +11489,7 @@
     <t xml:space="preserve">節魔術</t>
   </si>
   <si>
-    <t xml:space="preserve">마나를 절약하는 기술을 배우다.</t>
+    <t xml:space="preserve">마나를 절약하는 기술을 배운다.</t>
   </si>
   <si>
     <t xml:space="preserve">You learn how to save mana.</t>
@@ -11522,7 +11522,7 @@
     <t xml:space="preserve">2003</t>
   </si>
   <si>
-    <t xml:space="preserve">건축의 기술. 빌드 모드에서 많은 기능을 사용할 수 있게 되다.</t>
+    <t xml:space="preserve">건축 기술. 빌드 모드에서 많은 기능을 사용할 수 있게 된다.</t>
   </si>
   <si>
     <t xml:space="preserve">An architectural Technology. Enables more functions in build mode.</t>
@@ -11552,7 +11552,7 @@
     <t xml:space="preserve">運営</t>
   </si>
   <si>
-    <t xml:space="preserve">홈 운영의 기술. 더 많은 조례를 운용하기 위해서 필수.</t>
+    <t xml:space="preserve">홈 운영 기술. 더 많은 조례를 운용하기 위해서 필수.</t>
   </si>
   <si>
     <t xml:space="preserve">A technology to manage home necessary for implementing a greater number of laws.</t>
@@ -11630,7 +11630,7 @@
     <t xml:space="preserve">脱税</t>
   </si>
   <si>
-    <t xml:space="preserve">소득을 숨기고 세무관의 눈을 속이는 기술. 내야 될 세금을 감액할 수 있다. 모든 거점의 스킬의 합계치가 적용된다.</t>
+    <t xml:space="preserve">소득을 숨기고 세무관의 눈을 속이는 기술. 내야 될 세금을 줄일 수 있다. 모든 거점의 스킬의 합계치가 적용된다.</t>
   </si>
   <si>
     <t xml:space="preserve">A technology to conceal income and deceive tax officials, allowing for a reduction in the taxes levied. The combined skill value from all bases is utilized.</t>
@@ -11819,7 +11819,7 @@
     <t xml:space="preserve">非常食</t>
   </si>
   <si>
-    <t xml:space="preserve">위급 시 사용하는 식량. 주민 수가 상한을 넘었을 때, 패널티를 완화한다.</t>
+    <t xml:space="preserve">위급 시 사용하는 식량. 주민 수가 상한을 넘었을 때 받게 되는 패널티를 완화한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency rations. Reduce penalties if the population surpasses the maximum limit.</t>
@@ -11840,7 +11840,7 @@
     <t xml:space="preserve">富裕税</t>
   </si>
   <si>
-    <t xml:space="preserve">부유층으로부터 세금을 증대시키는 조례. 세금은 활성화 되고 난 뒤, 30 일 부터 걷을 수 있다.</t>
+    <t xml:space="preserve">부유층으로부터 세금을 증대시키는 조례. 세금은 활성화 되고 난 뒤 30 일 후부터 걷을 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">An ordinance that increases tax revenue from wealthy residents. At least 30 days need to pass after enabling.</t>
@@ -11861,7 +11861,7 @@
     <t xml:space="preserve">信仰税</t>
   </si>
   <si>
-    <t xml:space="preserve">신의 신봉자에게서 세금을 징수하는 법률. 세금은 활성화 되고 난 뒤, 30 일 부터 걷을 수 있다.</t>
+    <t xml:space="preserve">신의 신봉자에게서 세금을 징수하는 법률. 세금은 활성화 되고 난 뒤, 30 일 후부터 걷을 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">An ordinance that generates additional tax revenue based on faith. At least 30 days need to pass after enabling.</t>
@@ -11981,7 +11981,7 @@
     <t xml:space="preserve">夜型生活条令</t>
   </si>
   <si>
-    <t xml:space="preserve">주민이 야행생활을 하게끔 권장하는 조례</t>
+    <t xml:space="preserve">주민에게 올빼미 족 생활을 하게끔 권장하는 조례</t>
   </si>
   <si>
     <t xml:space="preserve">A campaign that encourages nocturnal living among residents.</t>
@@ -12056,7 +12056,7 @@
     <t xml:space="preserve">住民税</t>
   </si>
   <si>
-    <t xml:space="preserve">주민으로부터 세금을 징수하는 법률. 세금은 활성화 되고 난 뒤, 30 일 부터 걷을 수 있다.</t>
+    <t xml:space="preserve">주민으로부터 세금을 징수하는 법률. 세금은 활성화 되고 난 뒤, 30 일 후부터 걷을 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">A law for collecting taxes from residents. At least 30 days need to pass after enabling.</t>
@@ -12077,7 +12077,7 @@
     <t xml:space="preserve">住人誘致運動</t>
   </si>
   <si>
-    <t xml:space="preserve">주민을 광범위하게 모집하고 게시판에 게시되는 이주 희망자의 수를 늘리는 운동.</t>
+    <t xml:space="preserve">많은 사람들을 불러모아 게시판에 게시되는 이주 희망자의 수를 늘리는 운동.</t>
   </si>
   <si>
     <t xml:space="preserve">A campaign to broadly recruit residents and increase the number of immigrants appear on the bulletin board.</t>
@@ -12161,7 +12161,7 @@
     <t xml:space="preserve">節電運動</t>
   </si>
   <si>
-    <t xml:space="preserve">주민들에게 절전을 하도록 해, 전력 소비를 억제하는 캠페인.</t>
+    <t xml:space="preserve">주민들에게 절전을 하도록 해 전력 소비를 억제하는 캠페인.</t>
   </si>
   <si>
     <t xml:space="preserve">A campaign that encourages residents to save electricity and reduce power consumption.</t>
@@ -12182,7 +12182,7 @@
     <t xml:space="preserve">ゴミ分別条令</t>
   </si>
   <si>
-    <t xml:space="preserve">주민에게 쓰레기 분리수거를 하도록 해, 시민 의식을 높이는 조례</t>
+    <t xml:space="preserve">주민에게 쓰레기 분리수거를 하도록 해 시민 의식을 높이는 조례</t>
   </si>
   <si>
     <t xml:space="preserve">A campaign that encourages residents to separate their waste and enhance communal civility.</t>
@@ -12203,7 +12203,7 @@
     <t xml:space="preserve">ポイ捨て厳罰法</t>
   </si>
   <si>
-    <t xml:space="preserve">쓰레기 배출을 엄벌화해, 쓰레기를 무단 투기를 방지하는 법률. 시민의식은 떨어진다.</t>
+    <t xml:space="preserve">쓰레기 배출을 엄격히 처벌해 쓰레기 무단 투기를 방지하는 법률. 시민의식은 떨어진다.</t>
   </si>
   <si>
     <t xml:space="preserve">A law imposing strict penalties for improper garbage disposal and littering, which leads to a decline in public civility.</t>
@@ -12224,7 +12224,7 @@
     <t xml:space="preserve">草むしり条令</t>
   </si>
   <si>
-    <t xml:space="preserve">주민에게 잡초를 제거하도록 해, 홈에 잡초가 잘 나지 않도록 하는 조례.</t>
+    <t xml:space="preserve">주민에게 잡초를 제거하도록 해 홈에 잡초가 잘 나지 않도록 하는 조례.</t>
   </si>
   <si>
     <t xml:space="preserve">A campaign that encourages residents to remove weeds, making it less likely for weeds to grow.</t>
@@ -12296,7 +12296,7 @@
     <t xml:space="preserve">悪魔呼び</t>
   </si>
   <si>
-    <t xml:space="preserve">악마 소환 의식을 치르며 강한 마물들을 불러오는 조례.</t>
+    <t xml:space="preserve">악마 소환 의식을 치뤄 강한 마물들을 불러오는 조례.</t>
   </si>
   <si>
     <t xml:space="preserve">A law to hold a ritual of demon summoning to call forth powerful monsters.</t>
@@ -12320,7 +12320,8 @@
     <t xml:space="preserve">お任せ農業</t>
   </si>
   <si>
-    <t xml:space="preserve">농사를 위임해서 짓는 조례. 수작업보다 효율은 떨어지지만 한번 씨앗을 뿌리면, 자동으로 작물을 수확해 씨를 개량한다. 농업 위임을 실시할 범위는 밭의 팻말로 지정해야 한다. 이웃한 작물의 품종은 단일화 될 수 있다.</t>
+    <t xml:space="preserve">농사를 위임해서 짓는 조례. 수작업보다 효율은 떨어지지만 한번 씨앗을 뿌리면 자동으로 작물을 수확해 씨앗을 개량한다. 
+농업 위임을 실시할 범위는 밭의 팻말로 지정해야 한다. 이웃한 작물의 품종이 단일화 될 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">A law to delegate agriculture. Although it is less efficient than manual labor, once the seeds are planted, crops are automatically harvested and seeds are improved. The area for automatic farming must be designated with a farm sign. The varieties of neighboring crops are sometimes unified.</t>
@@ -12341,7 +12342,7 @@
     <t xml:space="preserve">迷惑メールお断り</t>
   </si>
   <si>
-    <t xml:space="preserve">(거점 공통 정책) 귀중품이 아닌, 랜덤한 짐의 수령을 거부하는 조례.</t>
+    <t xml:space="preserve">(거점 공통 정책) 귀중품이 아닌 랜덤한 짐의 수령을 거부하는 조례.</t>
   </si>
   <si>
     <t xml:space="preserve">(Global Policy) A law to refuse random non-valuable packages </t>
@@ -12455,7 +12456,7 @@
     <t xml:space="preserve">観光客保護条例</t>
   </si>
   <si>
-    <t xml:space="preserve">홈에 방문하는 손님의 안전을 확보해, 보다 많은 손님을 불러들이는 조례.</t>
+    <t xml:space="preserve">홈에 방문하는 손님의 안전을 확보해 보다 많은 손님을 불러들이는 조례.</t>
   </si>
   <si>
     <t xml:space="preserve">A law to ensure the safety of visitors to your Home and attract more guests.</t>
@@ -12518,7 +12519,7 @@
     <t xml:space="preserve">大量展示</t>
   </si>
   <si>
-    <t xml:space="preserve">중복되는 관광전시품도 미미하지만 관광가치로 인정되는 조례. 개인전과 동시에 진행할 수 없다.</t>
+    <t xml:space="preserve">중복된 관광전시품도 미미하지만 관광가치로 인정되는 조례. 개인전과 동시에 진행할 수 없다.</t>
   </si>
   <si>
     <t xml:space="preserve">An ordinance allowing even duplicate exhibits to be counted as having slight tourism value.  Cannot be implemented simultaneously with Solo Exhibition.</t>
@@ -12728,7 +12729,7 @@
     <t xml:space="preserve">盗品取扱ライセンス</t>
   </si>
   <si>
-    <t xml:space="preserve">장물의 판매 가격을 상승시키는 라이센스. 도적 길드에 소속되어 있다면, 공헌치도 얻을 수 있다.</t>
+    <t xml:space="preserve">장물의 판매 가격을 상승시키는 라이센스. 도적 길드에 소속되어 있다면 공헌도도 얻을 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">License to increase the prices of tagged stolen goods. If you belong to the Thieves Guild, you will be also able to earn contribution points.</t>
@@ -12797,7 +12798,7 @@
     <t xml:space="preserve">繁殖期</t>
   </si>
   <si>
-    <t xml:space="preserve">가축이 밀크나 알을 생산하는 확률을 높이는 조례.</t>
+    <t xml:space="preserve">가축이 밀크나 알의 생산 확률을 높이는 조례.</t>
   </si>
   <si>
     <t xml:space="preserve">An ordinance to increase the probability of livestock producing milk and eggs.</t>
@@ -12818,7 +12819,7 @@
     <t xml:space="preserve">奴隷販売ライセンス</t>
   </si>
   <si>
-    <t xml:space="preserve">노예의 가격을 상승시키는 라이센스.</t>
+    <t xml:space="preserve">노예 가격을 상승시키는 라이센스.</t>
   </si>
   <si>
     <t xml:space="preserve">A license that increases the prices of tagged slaves. </t>
@@ -12839,7 +12840,7 @@
     <t xml:space="preserve">洞窟</t>
   </si>
   <si>
-    <t xml:space="preserve">운영력을 상승시키기 쉬운 토지.</t>
+    <t xml:space="preserve">운영력이 쉽게 상승하는 땅.</t>
   </si>
   <si>
     <t xml:space="preserve">Land with more admin points.</t>
@@ -12872,7 +12873,7 @@
     <t xml:space="preserve">森</t>
   </si>
   <si>
-    <t xml:space="preserve">식료공급을 상승시키기 쉬운 토지.</t>
+    <t xml:space="preserve">식료 공급이 쉽게 상승하는 땅.</t>
   </si>
   <si>
     <t xml:space="preserve">Land with more food supply.</t>
@@ -12893,7 +12894,7 @@
     <t xml:space="preserve">雪原</t>
   </si>
   <si>
-    <t xml:space="preserve">식료 공급은 적지만, 운영력과 상업력이 높은 토지.</t>
+    <t xml:space="preserve">식료 공급은 적지만 운영력과 상업력이 높은 땅.</t>
   </si>
   <si>
     <t xml:space="preserve">Land with little food supply but more admin points and commercial power.</t>
@@ -12914,7 +12915,7 @@
     <t xml:space="preserve">丘</t>
   </si>
   <si>
-    <t xml:space="preserve">식료 공급은 적지만, 운영력을 상승시키기 쉬운 토지.</t>
+    <t xml:space="preserve">식료 공급은 적지만, 운영력이 쉽게 상승하는 땅.</t>
   </si>
   <si>
     <t xml:space="preserve">Land with little food supply but more admin points.</t>
@@ -12935,7 +12936,7 @@
     <t xml:space="preserve">ビーチ</t>
   </si>
   <si>
-    <t xml:space="preserve">생선이 많이 잡히고, 상업력이 높은 토지.</t>
+    <t xml:space="preserve">생선을 많이 잡을 수 있고, 상업력도 높은 땅.</t>
   </si>
   <si>
     <t xml:space="preserve">Land with many fish and more commercial power.</t>
@@ -12989,7 +12990,7 @@
     <t xml:space="preserve">間欠泉</t>
   </si>
   <si>
-    <t xml:space="preserve">온천지역 특유의 토질.</t>
+    <t xml:space="preserve">온천 지역 특유의 토질.</t>
   </si>
   <si>
     <t xml:space="preserve">Geological features unique to hot spring areas.</t>
@@ -13031,7 +13032,7 @@
     <t xml:space="preserve">安穏</t>
   </si>
   <si>
-    <t xml:space="preserve">마물이 침입해 올 확률을 줄인다.</t>
+    <t xml:space="preserve">마물이 침입해 올 확률을 줄어 든다.</t>
   </si>
   <si>
     <t xml:space="preserve">Reduce the probability of monster attacks.</t>
@@ -13073,7 +13074,7 @@
     <t xml:space="preserve">狩場</t>
   </si>
   <si>
-    <t xml:space="preserve">더 많은 생물이 자연 발생하게 된다.</t>
+    <t xml:space="preserve">더 많은 생물들이 등장한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Encourage more creatures to spawn.</t>
@@ -13094,7 +13095,7 @@
     <t xml:space="preserve">釣場</t>
   </si>
   <si>
-    <t xml:space="preserve">더 많은 생선이 잡히게 된다.</t>
+    <t xml:space="preserve">생선이 더 많이 잡힌다.</t>
   </si>
   <si>
     <t xml:space="preserve">Increase the amount of fish that can be caught.</t>
@@ -13115,7 +13116,7 @@
     <t xml:space="preserve">魔物の巣</t>
   </si>
   <si>
-    <t xml:space="preserve">마물이 빈번하게 침입하게 된다.</t>
+    <t xml:space="preserve">마물이 빈번하게 침입한다.</t>
   </si>
   <si>
     <t xml:space="preserve">More monsters start attacking the base.</t>
@@ -13157,7 +13158,7 @@
     <t xml:space="preserve">盆地</t>
   </si>
   <si>
-    <t xml:space="preserve">운영력을 상승시킨다.</t>
+    <t xml:space="preserve">운영력이 상승한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Increase admin points.</t>
@@ -13178,7 +13179,7 @@
     <t xml:space="preserve">繁殖地</t>
   </si>
   <si>
-    <t xml:space="preserve">더 많은 생물이 대량 발생하게 된다.</t>
+    <t xml:space="preserve">더 많은 생물들이 대량 발생한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Greatly encourage more creatures to spawn.</t>
@@ -13199,7 +13200,7 @@
     <t xml:space="preserve">巨像</t>
   </si>
   <si>
-    <t xml:space="preserve">관광가치를 상승시킨다.</t>
+    <t xml:space="preserve">관광 가치가 상승한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Increase tourism values.</t>
@@ -13424,7 +13425,7 @@
     <t xml:space="preserve">どこでもビルド</t>
   </si>
   <si>
-    <t xml:space="preserve">맵의 어느 곳에서라도 빌드 모드에 액세스 가능해진다.</t>
+    <t xml:space="preserve">맵 전체를 빌드 모드로 액세스할 수 잇다.</t>
   </si>
   <si>
     <t xml:space="preserve">Enables you to enter Build Mode from anywhere on map.</t>
@@ -13973,7 +13974,7 @@
     <t xml:space="preserve">スリの手</t>
   </si>
   <si>
-    <t xml:space="preserve">타인의 눈을 속이고 그 사이에 소유물을 슬쩍한다</t>
+    <t xml:space="preserve">타인의 눈을 속이고 그 사이에 소유물을 슬쩍한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Steal someone else's belongings.</t>
@@ -13994,7 +13995,7 @@
     <t xml:space="preserve">簡易製作</t>
   </si>
   <si>
-    <t xml:space="preserve">설비를 이용하지 않고 손으로 직접 제작</t>
+    <t xml:space="preserve">설비를 이용하지 않고 손으로 직접 제작.</t>
   </si>
   <si>
     <t xml:space="preserve">Hand crafting without a facility.</t>
@@ -14027,7 +14028,7 @@
     <t xml:space="preserve">自傷</t>
   </si>
   <si>
-    <t xml:space="preserve">스스로의 몸에 상처를 내서 여러 상태이상을 부여한다. 어쩔 수 없을때나 쓰는 최후의 수단</t>
+    <t xml:space="preserve">스스로의 몸에 상처를 내서 여러 상태이상을 부여한다. 어쩔 수 없을때나 쓰는 최후의 수단.</t>
   </si>
   <si>
     <t xml:space="preserve">Damage your own body and inflicts various status effects. The last card to play when there is nothing you can do.</t>
@@ -14426,7 +14427,7 @@
     <t xml:space="preserve">挑発</t>
   </si>
   <si>
-    <t xml:space="preserve">아군을 보호하고, 적의 시선을 끄는 스탠스.</t>
+    <t xml:space="preserve">아군을 보호하고 적의 시선을 끄는 스탠스.</t>
   </si>
   <si>
     <t xml:space="preserve">A stance that shields allies and attracts enemy attacks.</t>
@@ -14495,7 +14496,7 @@
     <t xml:space="preserve">《ジュア》の祈り</t>
   </si>
   <si>
-    <t xml:space="preserve">여신의 기도가 영창자와 주위의 아군을 회복한다.</t>
+    <t xml:space="preserve">여신의 기도가 시전자와 주위의 아군을 회복한다.</t>
   </si>
   <si>
     <t xml:space="preserve">The prayer of Goddess heals you and your allies.</t>
@@ -14525,7 +14526,7 @@
     <t xml:space="preserve">《ルルウィ》の憑依</t>
   </si>
   <si>
-    <t xml:space="preserve">영창자에 바람의 여신이 빙의해, 속도를 높인다.</t>
+    <t xml:space="preserve">시전자에 바람의 여신이 빙의해, 속도를 높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">The Goddess of Wind possesses and hastens the caster.</t>
@@ -14642,7 +14643,7 @@
     <t xml:space="preserve">渦</t>
   </si>
   <si>
-    <t xml:space="preserve">영창자를 중심으로, 마법의 구를 광범위로 소환한다.</t>
+    <t xml:space="preserve">시전자를 중심으로 광범위한 마법의 구체를 소환한다</t>
   </si>
   <si>
     <t xml:space="preserve">Summon a magical sphere around the caster, covering a wide range.</t>
@@ -14696,7 +14697,7 @@
     <t xml:space="preserve">손길</t>
   </si>
   <si>
-    <t xml:space="preserve">마력을 영창자의 손에 집중시켜, 접촉한 대상에게 피해를 가한다.</t>
+    <t xml:space="preserve">시전자의 손에 마력을 집중하여 접촉한 대상에게 피해를 입힌다.</t>
   </si>
   <si>
     <t xml:space="preserve">Concentrate magical power in the caster's hand to harm any touched target.</t>
@@ -14726,7 +14727,7 @@
     <t xml:space="preserve">矢</t>
   </si>
   <si>
-    <t xml:space="preserve">날카로운 마법의 화살을 대상을 겨누어 쏜다.</t>
+    <t xml:space="preserve">대상에게 날카로운 마법의 화살을 발사한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Release a sharp magical arrow aimed at the target.</t>
@@ -14756,7 +14757,7 @@
     <t xml:space="preserve">具象</t>
   </si>
   <si>
-    <t xml:space="preserve">의사를 가진 마력 덩어리를 구현한다.</t>
+    <t xml:space="preserve">의지를 가진 마력 덩어리를 구현한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Materialize a sentient mass of magical energy.</t>
@@ -14801,7 +14802,7 @@
     <t xml:space="preserve">唄</t>
   </si>
   <si>
-    <t xml:space="preserve">영창자의 무기에 마력을 부여한다.</t>
+    <t xml:space="preserve">시전자의 무기에 마력을 부여한다.</t>
   </si>
   <si>
     <t xml:space="preserve">Infuse the singer's weapon with elemental prowess. </t>
@@ -15089,7 +15090,7 @@
     <t xml:space="preserve">8281</t>
   </si>
   <si>
-    <t xml:space="preserve">신의 이름을 부르짖어 드높인다.</t>
+    <t xml:space="preserve">신의 이름을 드높인다.</t>
   </si>
   <si>
     <t xml:space="preserve">Praise and extol the name of God.</t>
@@ -15704,7 +15705,7 @@
     <t xml:space="preserve">沈黙</t>
   </si>
   <si>
-    <t xml:space="preserve">대상 주위에 주술 영창을 방해하는 안개를 발생시킨다.</t>
+    <t xml:space="preserve">대상 주위에 주술 시전을 방해하는 안개를 발생시킨다.</t>
   </si>
   <si>
     <t xml:space="preserve">Generate a fog around the target that impedes magical incantations.</t>
@@ -16782,14 +16783,18 @@
   <dimension ref="A1:AF830"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F491" activeCellId="1" sqref="G469 F491"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F651" activeCellId="0" sqref="F651"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="51.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="51.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="13" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17274,7 +17279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>124</v>
       </c>
@@ -19952,7 +19957,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>858</v>
       </c>
@@ -20092,7 +20097,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>898</v>
       </c>
@@ -20197,7 +20202,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>928</v>
       </c>
@@ -23601,7 +23606,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>1850</v>
       </c>
@@ -24951,7 +24956,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>2215</v>
       </c>
@@ -24995,7 +25000,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>2228</v>
       </c>
@@ -25039,7 +25044,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>2238</v>
       </c>
@@ -25083,7 +25088,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>2248</v>
       </c>
@@ -25118,7 +25123,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>2255</v>
       </c>
@@ -25162,7 +25167,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>2265</v>
       </c>
@@ -25197,7 +25202,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>2272</v>
       </c>
@@ -25232,7 +25237,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>2279</v>
       </c>
@@ -25276,7 +25281,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>2289</v>
       </c>
@@ -25320,7 +25325,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>2299</v>
       </c>
@@ -25364,7 +25369,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>2309</v>
       </c>
@@ -25408,7 +25413,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>2319</v>
       </c>
@@ -25452,7 +25457,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>2329</v>
       </c>
@@ -25496,7 +25501,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>2340</v>
       </c>
@@ -25540,7 +25545,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>2350</v>
       </c>
@@ -25584,7 +25589,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>2360</v>
       </c>
@@ -25628,7 +25633,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>2371</v>
       </c>
@@ -25672,7 +25677,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>2381</v>
       </c>
@@ -25751,7 +25756,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>2398</v>
       </c>
@@ -25786,7 +25791,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>2405</v>
       </c>
@@ -25821,7 +25826,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>2412</v>
       </c>
@@ -25865,7 +25870,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>2422</v>
       </c>
@@ -25909,7 +25914,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>2432</v>
       </c>
@@ -26006,7 +26011,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>2456</v>
       </c>
@@ -26050,7 +26055,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>2467</v>
       </c>
@@ -26656,7 +26661,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>2574</v>
       </c>
@@ -26672,7 +26677,7 @@
       <c r="E323" s="0" t="s">
         <v>2577</v>
       </c>
-      <c r="F323" s="0" t="s">
+      <c r="F323" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G323" s="0" t="s">
@@ -26700,7 +26705,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>2587</v>
       </c>
@@ -26716,7 +26721,7 @@
       <c r="E324" s="0" t="s">
         <v>2590</v>
       </c>
-      <c r="F324" s="0" t="s">
+      <c r="F324" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G324" s="0" t="s">
@@ -26735,7 +26740,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>2594</v>
       </c>
@@ -26751,7 +26756,7 @@
       <c r="E325" s="0" t="s">
         <v>2597</v>
       </c>
-      <c r="F325" s="0" t="s">
+      <c r="F325" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G325" s="0" t="s">
@@ -26779,7 +26784,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>2604</v>
       </c>
@@ -26795,7 +26800,7 @@
       <c r="E326" s="0" t="s">
         <v>2607</v>
       </c>
-      <c r="F326" s="0" t="s">
+      <c r="F326" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G326" s="0" t="s">
@@ -26823,7 +26828,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>2614</v>
       </c>
@@ -26839,7 +26844,7 @@
       <c r="E327" s="0" t="s">
         <v>2617</v>
       </c>
-      <c r="F327" s="0" t="s">
+      <c r="F327" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G327" s="0" t="s">
@@ -26867,7 +26872,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>2624</v>
       </c>
@@ -26883,7 +26888,7 @@
       <c r="E328" s="0" t="s">
         <v>2627</v>
       </c>
-      <c r="F328" s="0" t="s">
+      <c r="F328" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G328" s="0" t="s">
@@ -26911,7 +26916,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>2634</v>
       </c>
@@ -26927,7 +26932,7 @@
       <c r="E329" s="0" t="s">
         <v>2637</v>
       </c>
-      <c r="F329" s="0" t="s">
+      <c r="F329" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G329" s="0" t="s">
@@ -26955,7 +26960,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>2644</v>
       </c>
@@ -26971,7 +26976,7 @@
       <c r="E330" s="0" t="s">
         <v>2647</v>
       </c>
-      <c r="F330" s="0" t="s">
+      <c r="F330" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G330" s="0" t="s">
@@ -26999,7 +27004,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>2654</v>
       </c>
@@ -27015,7 +27020,7 @@
       <c r="E331" s="0" t="s">
         <v>2657</v>
       </c>
-      <c r="F331" s="0" t="s">
+      <c r="F331" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G331" s="0" t="s">
@@ -27043,7 +27048,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>2664</v>
       </c>
@@ -27059,7 +27064,7 @@
       <c r="E332" s="0" t="s">
         <v>2667</v>
       </c>
-      <c r="F332" s="0" t="s">
+      <c r="F332" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G332" s="0" t="s">
@@ -27087,7 +27092,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>2674</v>
       </c>
@@ -27103,7 +27108,7 @@
       <c r="E333" s="0" t="s">
         <v>2677</v>
       </c>
-      <c r="F333" s="0" t="s">
+      <c r="F333" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G333" s="0" t="s">
@@ -27131,7 +27136,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>2684</v>
       </c>
@@ -27147,7 +27152,7 @@
       <c r="E334" s="0" t="s">
         <v>2687</v>
       </c>
-      <c r="F334" s="0" t="s">
+      <c r="F334" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G334" s="0" t="s">
@@ -27175,7 +27180,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>2694</v>
       </c>
@@ -27191,7 +27196,7 @@
       <c r="E335" s="0" t="s">
         <v>2697</v>
       </c>
-      <c r="F335" s="0" t="s">
+      <c r="F335" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G335" s="0" t="s">
@@ -27219,7 +27224,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>2704</v>
       </c>
@@ -27235,7 +27240,7 @@
       <c r="E336" s="0" t="s">
         <v>2707</v>
       </c>
-      <c r="F336" s="0" t="s">
+      <c r="F336" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G336" s="0" t="s">
@@ -27263,7 +27268,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>2714</v>
       </c>
@@ -27279,7 +27284,7 @@
       <c r="E337" s="0" t="s">
         <v>2717</v>
       </c>
-      <c r="F337" s="0" t="s">
+      <c r="F337" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G337" s="0" t="s">
@@ -27307,7 +27312,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>2724</v>
       </c>
@@ -27323,7 +27328,7 @@
       <c r="E338" s="0" t="s">
         <v>2727</v>
       </c>
-      <c r="F338" s="0" t="s">
+      <c r="F338" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G338" s="0" t="s">
@@ -27360,7 +27365,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>2737</v>
       </c>
@@ -27376,7 +27381,7 @@
       <c r="E339" s="0" t="s">
         <v>2740</v>
       </c>
-      <c r="F339" s="0" t="s">
+      <c r="F339" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G339" s="0" t="s">
@@ -27404,7 +27409,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>2747</v>
       </c>
@@ -27420,7 +27425,7 @@
       <c r="E340" s="0" t="s">
         <v>2750</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="F340" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G340" s="0" t="s">
@@ -27448,7 +27453,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>2757</v>
       </c>
@@ -27464,7 +27469,7 @@
       <c r="E341" s="0" t="s">
         <v>2760</v>
       </c>
-      <c r="F341" s="0" t="s">
+      <c r="F341" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G341" s="0" t="s">
@@ -27492,7 +27497,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>2767</v>
       </c>
@@ -27508,7 +27513,7 @@
       <c r="E342" s="0" t="s">
         <v>2770</v>
       </c>
-      <c r="F342" s="0" t="s">
+      <c r="F342" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G342" s="0" t="s">
@@ -27536,7 +27541,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>2777</v>
       </c>
@@ -27552,7 +27557,7 @@
       <c r="E343" s="0" t="s">
         <v>2781</v>
       </c>
-      <c r="F343" s="0" t="s">
+      <c r="F343" s="2" t="s">
         <v>2578</v>
       </c>
       <c r="G343" s="0" t="s">
@@ -32165,7 +32170,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="24.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>3950</v>
       </c>
@@ -32181,7 +32186,7 @@
       <c r="E460" s="0" t="s">
         <v>3954</v>
       </c>
-      <c r="F460" s="0" t="s">
+      <c r="F460" s="2" t="s">
         <v>3955</v>
       </c>
       <c r="G460" s="0" t="s">
@@ -32789,7 +32794,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>4124</v>
       </c>
@@ -32815,7 +32820,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>4131</v>
       </c>
@@ -32945,7 +32950,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
         <v>4163</v>
       </c>
@@ -33231,7 +33236,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>4237</v>
       </c>
@@ -33257,7 +33262,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
         <v>4244</v>
       </c>
@@ -33283,7 +33288,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>4251</v>
       </c>
@@ -33309,7 +33314,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
         <v>4255</v>
       </c>
@@ -33335,7 +33340,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>4259</v>
       </c>
@@ -33361,7 +33366,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
         <v>4263</v>
       </c>
@@ -35599,7 +35604,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
         <v>4725</v>
       </c>
@@ -35669,7 +35674,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
         <v>4745</v>
       </c>
@@ -37931,7 +37936,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
         <v>5257</v>
       </c>
@@ -37983,7 +37988,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
         <v>5267</v>
       </c>
@@ -38018,7 +38023,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
         <v>5268</v>
       </c>
@@ -38053,7 +38058,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
         <v>5269</v>
       </c>
@@ -38088,7 +38093,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
         <v>5270</v>
       </c>
@@ -38123,7 +38128,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
         <v>5271</v>
       </c>
@@ -38158,7 +38163,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
         <v>5272</v>
       </c>
@@ -38184,7 +38189,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
         <v>5273</v>
       </c>
@@ -38219,7 +38224,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
         <v>5274</v>
       </c>
@@ -38271,7 +38276,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
         <v>5276</v>
       </c>
@@ -38306,7 +38311,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
         <v>5277</v>
       </c>
@@ -38341,7 +38346,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
         <v>5278</v>
       </c>
@@ -38376,7 +38381,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
         <v>5279</v>
       </c>
@@ -38411,7 +38416,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
         <v>5280</v>
       </c>
@@ -38446,7 +38451,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
         <v>5281</v>
       </c>
@@ -38472,7 +38477,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
         <v>5282</v>
       </c>
@@ -38507,7 +38512,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
         <v>5283</v>
       </c>
@@ -38559,7 +38564,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
         <v>5285</v>
       </c>
@@ -38594,7 +38599,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
         <v>5286</v>
       </c>
@@ -38629,7 +38634,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
         <v>5287</v>
       </c>
@@ -38664,7 +38669,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
         <v>5288</v>
       </c>
@@ -38699,7 +38704,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
         <v>5289</v>
       </c>
@@ -38734,7 +38739,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
         <v>5290</v>
       </c>
@@ -38760,7 +38765,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
         <v>5291</v>
       </c>
@@ -38795,7 +38800,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
         <v>5292</v>
       </c>
@@ -38847,7 +38852,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
         <v>5294</v>
       </c>
@@ -38882,7 +38887,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
         <v>5295</v>
       </c>
@@ -38917,7 +38922,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
         <v>5296</v>
       </c>
@@ -38952,7 +38957,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
         <v>5297</v>
       </c>
@@ -38987,7 +38992,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
         <v>5298</v>
       </c>
@@ -39022,7 +39027,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
         <v>5299</v>
       </c>
@@ -39048,7 +39053,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
         <v>5300</v>
       </c>
@@ -39083,7 +39088,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
         <v>5301</v>
       </c>
@@ -39135,7 +39140,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
         <v>5303</v>
       </c>
@@ -39170,7 +39175,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
         <v>5304</v>
       </c>
@@ -39205,7 +39210,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
         <v>5305</v>
       </c>
@@ -39240,7 +39245,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
         <v>5306</v>
       </c>
@@ -39275,7 +39280,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
         <v>5307</v>
       </c>
@@ -39310,7 +39315,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
         <v>5308</v>
       </c>
@@ -39336,7 +39341,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
         <v>5309</v>
       </c>
@@ -39371,7 +39376,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
         <v>5310</v>
       </c>
@@ -39423,7 +39428,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
         <v>5312</v>
       </c>
@@ -39458,7 +39463,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
         <v>5313</v>
       </c>
@@ -39493,7 +39498,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
         <v>5314</v>
       </c>
@@ -39528,7 +39533,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
         <v>5315</v>
       </c>
@@ -39563,7 +39568,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
         <v>5316</v>
       </c>
@@ -39598,7 +39603,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
         <v>5317</v>
       </c>
@@ -39624,7 +39629,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
         <v>5318</v>
       </c>
@@ -39659,7 +39664,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
         <v>5319</v>
       </c>
@@ -39711,7 +39716,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
         <v>5321</v>
       </c>
@@ -39746,7 +39751,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
         <v>5322</v>
       </c>
@@ -39781,7 +39786,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
         <v>5323</v>
       </c>
@@ -39816,7 +39821,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
         <v>5324</v>
       </c>
@@ -39851,7 +39856,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
         <v>5325</v>
       </c>
@@ -39886,7 +39891,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
         <v>5326</v>
       </c>
@@ -39912,7 +39917,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
         <v>5327</v>
       </c>
@@ -39947,7 +39952,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
         <v>5328</v>
       </c>
@@ -39999,7 +40004,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
         <v>5330</v>
       </c>
@@ -40034,7 +40039,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
         <v>5331</v>
       </c>
@@ -40069,7 +40074,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
         <v>5332</v>
       </c>
@@ -40104,7 +40109,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
         <v>5333</v>
       </c>
@@ -40139,7 +40144,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
         <v>5334</v>
       </c>
@@ -40174,7 +40179,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
         <v>5335</v>
       </c>
@@ -40200,7 +40205,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
         <v>5336</v>
       </c>
@@ -40235,7 +40240,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
         <v>5337</v>
       </c>
@@ -40287,7 +40292,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
         <v>5339</v>
       </c>
@@ -40322,7 +40327,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
         <v>5340</v>
       </c>
@@ -40357,7 +40362,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
         <v>5341</v>
       </c>
@@ -40392,7 +40397,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
         <v>5342</v>
       </c>
@@ -40427,7 +40432,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
         <v>5343</v>
       </c>
@@ -40462,7 +40467,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
         <v>5344</v>
       </c>
@@ -40488,7 +40493,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
         <v>5345</v>
       </c>
@@ -40523,7 +40528,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
         <v>5346</v>
       </c>
@@ -40575,7 +40580,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
         <v>5348</v>
       </c>
@@ -40610,7 +40615,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
         <v>5349</v>
       </c>
@@ -40645,7 +40650,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
         <v>5350</v>
       </c>
@@ -40680,7 +40685,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
         <v>5351</v>
       </c>
@@ -40715,7 +40720,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
         <v>5352</v>
       </c>
@@ -40750,7 +40755,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
         <v>5353</v>
       </c>
@@ -40776,7 +40781,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
         <v>5354</v>
       </c>
@@ -40811,7 +40816,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
         <v>5355</v>
       </c>
@@ -40863,7 +40868,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
         <v>5357</v>
       </c>
@@ -40898,7 +40903,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
         <v>5358</v>
       </c>
@@ -40933,7 +40938,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
         <v>5359</v>
       </c>
@@ -40968,7 +40973,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
         <v>5360</v>
       </c>
@@ -41003,7 +41008,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
         <v>5361</v>
       </c>
@@ -41038,7 +41043,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
         <v>5362</v>
       </c>
@@ -41064,7 +41069,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
         <v>5363</v>
       </c>
@@ -41099,7 +41104,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
         <v>5364</v>
       </c>
@@ -41151,7 +41156,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
         <v>5366</v>
       </c>
@@ -41186,7 +41191,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
         <v>5367</v>
       </c>
@@ -41221,7 +41226,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
         <v>5368</v>
       </c>
@@ -41256,7 +41261,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
         <v>5369</v>
       </c>
@@ -41291,7 +41296,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
         <v>5370</v>
       </c>
@@ -41326,7 +41331,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
         <v>5371</v>
       </c>
@@ -41352,7 +41357,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
         <v>5372</v>
       </c>
@@ -41387,7 +41392,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
         <v>5373</v>
       </c>
@@ -41439,7 +41444,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
         <v>5375</v>
       </c>
@@ -41474,7 +41479,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
         <v>5376</v>
       </c>
@@ -41509,7 +41514,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
         <v>5377</v>
       </c>
@@ -41544,7 +41549,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
         <v>5378</v>
       </c>
@@ -41579,7 +41584,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
         <v>5379</v>
       </c>
@@ -41614,7 +41619,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
         <v>5380</v>
       </c>
@@ -41640,7 +41645,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
         <v>5381</v>
       </c>
@@ -41675,7 +41680,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
         <v>5382</v>
       </c>
@@ -41727,7 +41732,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
         <v>5384</v>
       </c>
@@ -41762,7 +41767,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
         <v>5385</v>
       </c>
@@ -41797,7 +41802,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
         <v>5386</v>
       </c>
@@ -41832,7 +41837,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
         <v>5387</v>
       </c>
@@ -41867,7 +41872,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
         <v>5388</v>
       </c>
@@ -41902,7 +41907,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
         <v>5389</v>
       </c>
@@ -41928,7 +41933,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
         <v>5390</v>
       </c>
@@ -41963,7 +41968,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
         <v>5391</v>
       </c>
@@ -42015,7 +42020,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
         <v>5393</v>
       </c>
@@ -42050,7 +42055,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
         <v>5394</v>
       </c>
@@ -42085,7 +42090,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
         <v>5395</v>
       </c>
@@ -42120,7 +42125,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
         <v>5396</v>
       </c>
@@ -42155,7 +42160,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
         <v>5397</v>
       </c>
@@ -42190,7 +42195,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
         <v>5398</v>
       </c>
@@ -42216,7 +42221,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
         <v>5399</v>
       </c>
@@ -42251,7 +42256,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
         <v>5400</v>
       </c>
